--- a/data_input/analytics/OLAP MultiBOM Flame GPU.xlsx
+++ b/data_input/analytics/OLAP MultiBOM Flame GPU.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15480" windowHeight="7440" tabRatio="587"/>
   </bookViews>
   <sheets>
     <sheet name="OLAP MultiBOM" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$K$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$K$75</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="212">
   <si>
     <t>Эксплуатация</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Потребное число всего</t>
-  </si>
-  <si>
-    <t>Название</t>
   </si>
   <si>
     <t>ops_counter_total</t>
@@ -643,11 +640,6 @@
     <t>Каждый день на каждый location в Эксплуатации Ми-8 = 21 агрегата, Ми-17 = 22 агрегата с учетом планеров</t>
   </si>
   <si>
-    <t>Dataframe
-pandas/cudf
-TRANSFORM</t>
-  </si>
-  <si>
     <t>DWH OLAP
 CH MergeTree
 LOAD</t>
@@ -794,9 +786,6 @@
     <t>Заводской номер цифровой</t>
   </si>
   <si>
-    <t xml:space="preserve"> Чертежный номер цфировой</t>
-  </si>
-  <si>
     <t>psn</t>
   </si>
   <si>
@@ -807,6 +796,16 @@
   </si>
   <si>
     <t>Структура данных ETL цикла на GPU</t>
+  </si>
+  <si>
+    <t>Чертежный номер цфировой</t>
+  </si>
+  <si>
+    <t>cudf - Flame GPU
+TRANSFORM</t>
+  </si>
+  <si>
+    <t>Поле</t>
   </si>
 </sst>
 </file>
@@ -816,12 +815,20 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1135,345 +1142,348 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="41" fontId="21" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1783,10 +1793,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1822,18 +1832,18 @@
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
-      <c r="B3" s="72" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="102" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
@@ -1848,28 +1858,28 @@
         <v>10</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>1</v>
@@ -1878,192 +1888,192 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="49"/>
       <c r="B6" s="59" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" s="63"/>
-      <c r="D6" s="75" t="s">
-        <v>199</v>
+      <c r="D6" s="72" t="s">
+        <v>197</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="45" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="51"/>
       <c r="B7" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="F7" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="90" t="s">
-        <v>204</v>
-      </c>
-      <c r="H7" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="110" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="107" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="112" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="92" t="s">
-        <v>162</v>
-      </c>
-      <c r="J7" s="66" t="s">
-        <v>164</v>
-      </c>
       <c r="K7" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="51"/>
-      <c r="B8" s="93" t="s">
-        <v>121</v>
+      <c r="B8" s="103" t="s">
+        <v>120</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="K8" s="73" t="s">
-        <v>146</v>
+      <c r="K8" s="105" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="51"/>
-      <c r="B9" s="98"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="K9" s="74"/>
+      <c r="K9" s="106"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="51"/>
       <c r="B10" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="97"/>
+        <v>99</v>
+      </c>
+      <c r="E10" s="111"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="115"/>
       <c r="J10" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="K10" s="57" t="s">
-        <v>147</v>
+        <v>163</v>
+      </c>
+      <c r="K10" s="117" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="51"/>
       <c r="B11" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H11" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="101" t="s">
-        <v>53</v>
+        <v>202</v>
+      </c>
+      <c r="H11" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="86" t="s">
+        <v>52</v>
       </c>
       <c r="J11" s="30"/>
       <c r="K11" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="51"/>
       <c r="B12" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G12" s="30"/>
-      <c r="H12" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="101" t="s">
-        <v>53</v>
+      <c r="H12" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="86" t="s">
+        <v>52</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="51"/>
       <c r="B13" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="40" t="s">
@@ -2072,25 +2082,25 @@
       <c r="I13" s="40"/>
       <c r="J13" s="39"/>
       <c r="K13" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="51"/>
       <c r="B14" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="40" t="s">
@@ -2099,25 +2109,25 @@
       <c r="I14" s="40"/>
       <c r="J14" s="39"/>
       <c r="K14" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="51"/>
       <c r="B15" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G15" s="30"/>
       <c r="H15" s="40" t="s">
@@ -2126,25 +2136,25 @@
       <c r="I15" s="40"/>
       <c r="J15" s="39"/>
       <c r="K15" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="51"/>
       <c r="B16" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="40" t="s">
@@ -2153,25 +2163,25 @@
       <c r="I16" s="40"/>
       <c r="J16" s="39"/>
       <c r="K16" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="51"/>
       <c r="B17" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="40" t="s">
@@ -2180,7 +2190,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="39"/>
       <c r="K17" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -2189,16 +2199,16 @@
         <v>20</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F18" s="69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="7" t="s">
@@ -2209,579 +2219,580 @@
       </c>
       <c r="J18" s="18"/>
       <c r="K18" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="51"/>
-      <c r="B19" s="76" t="s">
-        <v>143</v>
+      <c r="B19" s="73" t="s">
+        <v>142</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="18"/>
       <c r="K19" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L19" s="27"/>
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="51"/>
-      <c r="B20" s="76" t="s">
-        <v>144</v>
+      <c r="B20" s="73" t="s">
+        <v>143</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="18"/>
       <c r="K20" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="82" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="82"/>
+      <c r="H22" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="82"/>
+      <c r="K22" s="46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="49"/>
+      <c r="B23" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="80"/>
+      <c r="D23" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="82"/>
+      <c r="K23" s="54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="51"/>
+      <c r="B24" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="80"/>
+      <c r="D24" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="I24" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="J24" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="47"/>
+      <c r="B25" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="82"/>
+      <c r="K25" s="44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="49"/>
+      <c r="B26" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="85"/>
+      <c r="D26" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="E21" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="F21" s="84" t="s">
-        <v>181</v>
-      </c>
-      <c r="G21" s="85"/>
-      <c r="H21" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="85"/>
-      <c r="K21" s="46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="49"/>
-      <c r="B22" s="82" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="86" t="s">
-        <v>184</v>
-      </c>
-      <c r="E22" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="F22" s="84" t="s">
-        <v>181</v>
-      </c>
-      <c r="G22" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="H22" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="85"/>
-      <c r="K22" s="54" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="51"/>
-      <c r="B23" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="86" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="F23" s="84" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="H23" s="87" t="s">
-        <v>162</v>
-      </c>
-      <c r="I23" s="87" t="s">
-        <v>162</v>
-      </c>
-      <c r="J23" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="57" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="47"/>
-      <c r="B24" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="86" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="F24" s="84" t="s">
-        <v>181</v>
-      </c>
-      <c r="G24" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="H24" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="85"/>
-      <c r="K24" s="44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="49"/>
-      <c r="B25" s="82" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="E25" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="F25" s="84" t="s">
-        <v>181</v>
-      </c>
-      <c r="G25" s="85"/>
-      <c r="H25" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="87" t="s">
-        <v>170</v>
-      </c>
-      <c r="J25" s="86"/>
-      <c r="K25" s="60" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="51"/>
-      <c r="B26" s="116" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="F26" s="84" t="s">
-        <v>181</v>
-      </c>
-      <c r="G26" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="H26" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="86"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="L26" s="27"/>
+      <c r="E26" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="82"/>
+      <c r="H26" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" s="83"/>
+      <c r="K26" s="60" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="51"/>
-      <c r="B27" s="116" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="F27" s="84" t="s">
-        <v>181</v>
-      </c>
-      <c r="G27" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="H27" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="86"/>
-      <c r="J27" s="85"/>
+      <c r="B27" s="101" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="83"/>
+      <c r="J27" s="82"/>
       <c r="K27" s="55" t="s">
         <v>141</v>
       </c>
       <c r="L27" s="27"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="50"/>
-      <c r="B28" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102" t="s">
+    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="51"/>
+      <c r="B28" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="84" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="83"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="L28" s="27"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="50"/>
+      <c r="B29" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F28" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="G28" s="105"/>
-      <c r="H28" s="102" t="s">
+      <c r="C29" s="87"/>
+      <c r="D29" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="90"/>
+      <c r="H29" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="102" t="s">
+      <c r="I29" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="106"/>
-      <c r="K28" s="48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="49"/>
-      <c r="B29" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="107"/>
-      <c r="D29" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F29" s="103" t="s">
-        <v>178</v>
-      </c>
-      <c r="G29" s="106"/>
-      <c r="H29" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="108"/>
-      <c r="K29" s="29" t="s">
-        <v>109</v>
+      <c r="J29" s="91"/>
+      <c r="K29" s="48" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="49"/>
-      <c r="B30" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" s="107"/>
+      <c r="B30" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="92"/>
       <c r="D30" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="E30" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F30" s="103" t="s">
-        <v>178</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="H30" s="108" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="108" t="s">
-        <v>161</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="44" t="s">
-        <v>133</v>
+        <v>33</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="91"/>
+      <c r="H30" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="93"/>
+      <c r="K30" s="29" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="49"/>
       <c r="B31" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" s="107"/>
+        <v>204</v>
+      </c>
+      <c r="C31" s="92"/>
       <c r="D31" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="E31" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F31" s="103" t="s">
-        <v>178</v>
+        <v>203</v>
+      </c>
+      <c r="E31" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="88" t="s">
+        <v>176</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="H31" s="108" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="108" t="s">
-        <v>161</v>
+        <v>172</v>
+      </c>
+      <c r="H31" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="93" t="s">
+        <v>159</v>
       </c>
       <c r="J31" s="26"/>
-      <c r="K31" s="7" t="s">
-        <v>129</v>
+      <c r="K31" s="44" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="49"/>
       <c r="B32" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="E32" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F32" s="104" t="s">
-        <v>178</v>
+      <c r="C32" s="92"/>
+      <c r="D32" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="88" t="s">
+        <v>176</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="H32" s="108" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="109" t="s">
-        <v>161</v>
-      </c>
-      <c r="J32" s="42"/>
-      <c r="K32" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="51"/>
-      <c r="B33" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="J32" s="26"/>
+      <c r="K32" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="92"/>
+      <c r="D33" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E33" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="H33" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="J33" s="42"/>
+      <c r="K33" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="51"/>
+      <c r="B34" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="95"/>
+      <c r="D34" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="110"/>
-      <c r="D33" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F33" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="H33" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="I33" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="J33" s="111"/>
-      <c r="K33" s="56" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
-      <c r="B34" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="113"/>
-      <c r="D34" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F34" s="104" t="s">
-        <v>178</v>
+      <c r="E34" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="89" t="s">
+        <v>176</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="H34" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="I34" s="114" t="s">
-        <v>170</v>
-      </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="60" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+      <c r="H34" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="96"/>
+      <c r="K34" s="56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="49"/>
       <c r="B35" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="98"/>
+      <c r="D35" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="H35" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="J35" s="26"/>
+      <c r="K35" s="60" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="B36" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="107"/>
-      <c r="D35" s="26" t="s">
+      <c r="C36" s="92"/>
+      <c r="D36" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F35" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="H35" s="114" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="114" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="106"/>
-      <c r="K35" s="54" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="51"/>
-      <c r="B36" s="28" t="s">
+      <c r="E36" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="H36" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="91"/>
+      <c r="K36" s="54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="51"/>
+      <c r="B37" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="107"/>
-      <c r="D36" s="26" t="s">
+      <c r="C37" s="92"/>
+      <c r="D37" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="H36" s="114" t="s">
-        <v>162</v>
-      </c>
-      <c r="I36" s="114" t="s">
-        <v>162</v>
-      </c>
-      <c r="J36" s="26" t="s">
+      <c r="E37" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="J37" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="57" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="49"/>
-      <c r="B37" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F37" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="115"/>
-      <c r="K37" s="46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K37" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="49"/>
       <c r="B38" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="107" t="s">
-        <v>152</v>
+        <v>92</v>
+      </c>
+      <c r="C38" s="92" t="s">
+        <v>151</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F38" s="104" t="s">
-        <v>178</v>
+        <v>6</v>
+      </c>
+      <c r="E38" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="89" t="s">
+        <v>176</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H38" s="26" t="s">
         <v>16</v>
@@ -2789,30 +2800,30 @@
       <c r="I38" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="115"/>
-      <c r="K38" s="37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J38" s="100"/>
+      <c r="K38" s="46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="49"/>
       <c r="B39" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="107" t="s">
-        <v>152</v>
+        <v>93</v>
+      </c>
+      <c r="C39" s="92" t="s">
+        <v>151</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F39" s="104" t="s">
-        <v>178</v>
+        <v>5</v>
+      </c>
+      <c r="E39" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="89" t="s">
+        <v>176</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H39" s="26" t="s">
         <v>16</v>
@@ -2820,30 +2831,30 @@
       <c r="I39" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J39" s="115"/>
+      <c r="J39" s="100"/>
       <c r="K39" s="37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="49"/>
       <c r="B40" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="107" t="s">
-        <v>152</v>
+        <v>94</v>
+      </c>
+      <c r="C40" s="92" t="s">
+        <v>151</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F40" s="104" t="s">
-        <v>178</v>
+        <v>17</v>
+      </c>
+      <c r="E40" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" s="89" t="s">
+        <v>176</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H40" s="26" t="s">
         <v>16</v>
@@ -2851,30 +2862,30 @@
       <c r="I40" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J40" s="115"/>
+      <c r="J40" s="100"/>
       <c r="K40" s="37" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="49"/>
       <c r="B41" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="107" t="s">
-        <v>152</v>
+        <v>95</v>
+      </c>
+      <c r="C41" s="92" t="s">
+        <v>151</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F41" s="104" t="s">
-        <v>178</v>
+        <v>7</v>
+      </c>
+      <c r="E41" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="89" t="s">
+        <v>176</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H41" s="26" t="s">
         <v>16</v>
@@ -2882,118 +2893,117 @@
       <c r="I41" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J41" s="115"/>
+      <c r="J41" s="100"/>
       <c r="K41" s="37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="49"/>
       <c r="B42" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="107" t="s">
-        <v>155</v>
+        <v>96</v>
+      </c>
+      <c r="C42" s="92" t="s">
+        <v>151</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F42" s="104" t="s">
-        <v>178</v>
+        <v>8</v>
+      </c>
+      <c r="E42" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" s="89" t="s">
+        <v>176</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="106"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="J42" s="100"/>
+      <c r="K42" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="49"/>
       <c r="B43" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="107" t="s">
-        <v>152</v>
+        <v>19</v>
+      </c>
+      <c r="C43" s="92" t="s">
+        <v>154</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F43" s="104" t="s">
-        <v>178</v>
+        <v>9</v>
+      </c>
+      <c r="E43" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="89" t="s">
+        <v>176</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" s="115"/>
-      <c r="K43" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="L43" s="27"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="J43" s="91"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107" t="s">
+      <c r="C44" s="92"/>
+      <c r="D44" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F44" s="104" t="s">
-        <v>178</v>
+      <c r="E44" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F44" s="89" t="s">
+        <v>176</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H44" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="114" t="s">
+      <c r="I44" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="J44" s="106"/>
+      <c r="J44" s="91"/>
       <c r="K44" s="46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="49"/>
       <c r="B45" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="92"/>
+      <c r="D45" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="107"/>
-      <c r="D45" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="F45" s="104" t="s">
-        <v>178</v>
+      <c r="E45" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="89" t="s">
+        <v>176</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H45" s="26" t="s">
         <v>18</v>
@@ -3001,253 +3011,253 @@
       <c r="I45" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J45" s="106"/>
+      <c r="J45" s="91"/>
       <c r="K45" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="47"/>
-      <c r="B46" s="77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="75"/>
+      <c r="D46" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="G46" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="H46" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="91"/>
+      <c r="K46" s="46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="47"/>
+      <c r="B47" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="F46" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="G46" s="80"/>
-      <c r="H46" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="J46" s="80"/>
-      <c r="K46" s="44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="47"/>
-      <c r="B47" s="77" t="s">
+      <c r="C47" s="75"/>
+      <c r="D47" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="G47" s="77"/>
+      <c r="H47" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="77"/>
+      <c r="K47" s="44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="47"/>
+      <c r="B48" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78" t="s">
+      <c r="C48" s="75"/>
+      <c r="D48" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="F47" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="G47" s="80"/>
-      <c r="H47" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="80"/>
-      <c r="K47" s="44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
-      <c r="B48" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="F48" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="G48" s="80"/>
-      <c r="H48" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="80"/>
-      <c r="K48" s="46" t="s">
-        <v>135</v>
+      <c r="E48" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="G48" s="77"/>
+      <c r="H48" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="77"/>
+      <c r="K48" s="44" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
-      <c r="B49" s="77" t="s">
+      <c r="B49" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="F49" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="G49" s="77"/>
+      <c r="H49" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="77"/>
+      <c r="K49" s="46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="5"/>
+      <c r="B50" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="75"/>
+      <c r="D50" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="G50" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="H50" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="J50" s="77"/>
+      <c r="K50" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5"/>
+      <c r="B51" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="78"/>
-      <c r="D49" s="81" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="F49" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="G49" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="H49" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="I49" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="J49" s="80"/>
-      <c r="K49" s="37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
-      <c r="B50" s="77" t="s">
+      <c r="C51" s="75"/>
+      <c r="D51" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="G51" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="H51" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51" s="77"/>
+      <c r="K51" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="5"/>
+      <c r="B52" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="78"/>
-      <c r="D50" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="F50" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="G50" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="H50" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="I50" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="J50" s="80"/>
-      <c r="K50" s="37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
-      <c r="B51" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="78"/>
-      <c r="D51" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="E51" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="F51" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="G51" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="H51" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="I51" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="J51" s="80"/>
-      <c r="K51" s="37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="47"/>
-      <c r="B52" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="78" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="E52" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="F52" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="G52" s="80"/>
-      <c r="H52" s="81" t="s">
+      <c r="C52" s="75"/>
+      <c r="D52" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="F52" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="G52" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="H52" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="77"/>
+      <c r="K52" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="47"/>
+      <c r="B53" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="E53" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="F53" s="76" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" s="77"/>
+      <c r="H53" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="81" t="s">
+      <c r="I53" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="J52" s="80"/>
-      <c r="K52" s="44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="5"/>
-      <c r="B53" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="F53" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J53" s="18"/>
-      <c r="K53" s="21" t="s">
-        <v>76</v>
+      <c r="J53" s="77"/>
+      <c r="K53" s="44" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E54" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F54" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="20" t="s">
@@ -3258,25 +3268,25 @@
       </c>
       <c r="J54" s="18"/>
       <c r="K54" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="12" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C55" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="E55" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F55" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="20" t="s">
@@ -3287,24 +3297,25 @@
       </c>
       <c r="J55" s="18"/>
       <c r="K55" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B56" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>37</v>
+      <c r="A56" s="5"/>
+      <c r="B56" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E56" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F56" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="20" t="s">
@@ -3315,24 +3326,24 @@
       </c>
       <c r="J56" s="18"/>
       <c r="K56" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B57" s="13" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E57" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F57" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="20" t="s">
@@ -3343,24 +3354,24 @@
       </c>
       <c r="J57" s="18"/>
       <c r="K57" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B58" s="13" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E58" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F58" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="20" t="s">
@@ -3371,24 +3382,24 @@
       </c>
       <c r="J58" s="18"/>
       <c r="K58" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B59" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E59" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F59" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="20" t="s">
@@ -3399,24 +3410,24 @@
       </c>
       <c r="J59" s="18"/>
       <c r="K59" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B60" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E60" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F60" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="20" t="s">
@@ -3427,24 +3438,24 @@
       </c>
       <c r="J60" s="18"/>
       <c r="K60" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B61" s="36" t="s">
-        <v>61</v>
+      <c r="B61" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E61" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F61" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="20" t="s">
@@ -3455,24 +3466,24 @@
       </c>
       <c r="J61" s="18"/>
       <c r="K61" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B62" s="13" t="s">
-        <v>62</v>
+      <c r="B62" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E62" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F62" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="20" t="s">
@@ -3483,52 +3494,52 @@
       </c>
       <c r="J62" s="18"/>
       <c r="K62" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B63" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>44</v>
+      <c r="B63" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E63" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F63" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J63" s="39"/>
-      <c r="K63" s="22" t="s">
-        <v>77</v>
+        <v>180</v>
+      </c>
+      <c r="G63" s="9"/>
+      <c r="H63" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="18"/>
+      <c r="K63" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C64" s="64" t="s">
         <v>153</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E64" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F64" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="16" t="s">
@@ -3538,25 +3549,25 @@
         <v>15</v>
       </c>
       <c r="J64" s="39"/>
-      <c r="K64" s="21" t="s">
+      <c r="K64" s="22" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C65" s="64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E65" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F65" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="16" t="s">
@@ -3567,24 +3578,24 @@
       </c>
       <c r="J65" s="39"/>
       <c r="K65" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C66" s="64" t="s">
         <v>153</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E66" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F66" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G66" s="11"/>
       <c r="H66" s="16" t="s">
@@ -3595,24 +3606,24 @@
       </c>
       <c r="J66" s="39"/>
       <c r="K66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C67" s="64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E67" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F67" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G67" s="11"/>
       <c r="H67" s="16" t="s">
@@ -3622,188 +3633,216 @@
         <v>15</v>
       </c>
       <c r="J67" s="39"/>
-      <c r="K67" s="33" t="s">
-        <v>116</v>
+      <c r="K67" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="64"/>
+        <v>66</v>
+      </c>
+      <c r="C68" s="64" t="s">
+        <v>153</v>
+      </c>
       <c r="D68" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E68" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F68" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G68" s="11"/>
       <c r="H68" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J68" s="18"/>
-      <c r="K68" s="38" t="s">
-        <v>125</v>
+        <v>15</v>
+      </c>
+      <c r="J68" s="39"/>
+      <c r="K68" s="33" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C69" s="64"/>
       <c r="D69" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E69" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F69" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="16" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="J69" s="18"/>
       <c r="K69" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C70" s="64"/>
       <c r="D70" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E70" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F70" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G70" s="11"/>
       <c r="H70" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J70" s="18"/>
       <c r="K70" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C71" s="64"/>
-      <c r="D71" s="17" t="s">
-        <v>52</v>
+      <c r="D71" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="E71" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F71" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J71" s="18"/>
       <c r="K71" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B72" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="20" t="s">
-        <v>80</v>
+      <c r="B72" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="64"/>
+      <c r="D72" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="E72" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F72" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G72" s="11"/>
-      <c r="H72" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="I72" s="16"/>
+      <c r="H72" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="J72" s="18"/>
-      <c r="K72" s="7" t="s">
-        <v>112</v>
+      <c r="K72" s="38" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B73" s="24" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="20" t="s">
         <v>79</v>
       </c>
       <c r="E73" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F73" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I73" s="16"/>
       <c r="J73" s="18"/>
       <c r="K73" s="7" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B74" s="34" t="s">
-        <v>114</v>
+      <c r="B74" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="C74" s="23"/>
-      <c r="D74" s="29" t="s">
-        <v>115</v>
+      <c r="D74" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="E74" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F74" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="I74" s="35"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I74" s="16"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B75" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="23"/>
+      <c r="D75" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E75" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F75" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="G75" s="11"/>
+      <c r="H75" s="31" t="s">
         <v>117</v>
       </c>
+      <c r="I75" s="35"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="29" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K74">
+  <autoFilter ref="A5:K75">
     <filterColumn colId="4">
       <filters>
         <filter val="Agent Variable"/>

--- a/data_input/analytics/OLAP MultiBOM Flame GPU.xlsx
+++ b/data_input/analytics/OLAP MultiBOM Flame GPU.xlsx
@@ -10,14 +10,14 @@
     <sheet name="OLAP MultiBOM" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$K$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$K$76</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="215">
   <si>
     <t>Эксплуатация</t>
   </si>
@@ -290,9 +290,6 @@
   </si>
   <si>
     <t>Триггер изменения потребного всего (+/- ед)</t>
-  </si>
-  <si>
-    <t>status</t>
   </si>
   <si>
     <t>НР агрегата</t>
@@ -807,6 +804,18 @@
   <si>
     <t>Поле</t>
   </si>
+  <si>
+    <t>location_all</t>
+  </si>
+  <si>
+    <t>Environment MacroProperty5</t>
+  </si>
+  <si>
+    <t>status_id</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
 </sst>
 </file>
 
@@ -815,12 +824,20 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1142,347 +1159,350 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="41" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1793,10 +1813,10 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1832,18 +1852,18 @@
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
-      <c r="B3" s="102" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
+      <c r="B3" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
@@ -1858,28 +1878,28 @@
         <v>10</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E5" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>201</v>
-      </c>
       <c r="G5" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>1</v>
@@ -1888,98 +1908,98 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="49"/>
       <c r="B6" s="59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="63"/>
       <c r="D6" s="72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="45" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="51"/>
       <c r="B7" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="110" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="110" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="107" t="s">
-        <v>202</v>
-      </c>
-      <c r="H7" s="112" t="s">
-        <v>160</v>
-      </c>
-      <c r="I7" s="114" t="s">
-        <v>160</v>
+        <v>117</v>
+      </c>
+      <c r="E7" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="108" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" s="113" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="115" t="s">
+        <v>159</v>
       </c>
       <c r="J7" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K7" s="52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="51"/>
-      <c r="B8" s="103" t="s">
-        <v>120</v>
+      <c r="B8" s="104" t="s">
+        <v>119</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="115"/>
+        <v>163</v>
+      </c>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="116"/>
       <c r="J8" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="K8" s="105" t="s">
-        <v>145</v>
+        <v>165</v>
+      </c>
+      <c r="K8" s="106" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="51"/>
-      <c r="B9" s="104"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="115"/>
+        <v>164</v>
+      </c>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="116"/>
       <c r="J9" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="K9" s="106"/>
+        <v>166</v>
+      </c>
+      <c r="K9" s="107"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="51"/>
@@ -1988,18 +2008,18 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="115"/>
+        <v>98</v>
+      </c>
+      <c r="E10" s="112"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="116"/>
       <c r="J10" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="K10" s="117" t="s">
-        <v>146</v>
+        <v>162</v>
+      </c>
+      <c r="K10" s="102" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -2009,16 +2029,16 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H11" s="86" t="s">
         <v>52</v>
@@ -2028,23 +2048,23 @@
       </c>
       <c r="J11" s="30"/>
       <c r="K11" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="51"/>
       <c r="B12" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="86" t="s">
@@ -2055,7 +2075,7 @@
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -2064,16 +2084,16 @@
         <v>83</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="40" t="s">
@@ -2082,7 +2102,7 @@
       <c r="I13" s="40"/>
       <c r="J13" s="39"/>
       <c r="K13" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -2091,16 +2111,16 @@
         <v>84</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="40" t="s">
@@ -2109,7 +2129,7 @@
       <c r="I14" s="40"/>
       <c r="J14" s="39"/>
       <c r="K14" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -2118,16 +2138,16 @@
         <v>85</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G15" s="30"/>
       <c r="H15" s="40" t="s">
@@ -2136,7 +2156,7 @@
       <c r="I15" s="40"/>
       <c r="J15" s="39"/>
       <c r="K15" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -2145,16 +2165,16 @@
         <v>86</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="40" t="s">
@@ -2163,7 +2183,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="39"/>
       <c r="K16" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -2172,16 +2192,16 @@
         <v>87</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="40" t="s">
@@ -2190,25 +2210,27 @@
       <c r="I17" s="40"/>
       <c r="J17" s="39"/>
       <c r="K17" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="49"/>
+      <c r="A18" s="49">
+        <v>1</v>
+      </c>
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F18" s="69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="7" t="s">
@@ -2219,25 +2241,27 @@
       </c>
       <c r="J18" s="18"/>
       <c r="K18" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="51"/>
+      <c r="A19" s="51">
+        <v>1</v>
+      </c>
       <c r="B19" s="73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E19" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="7" t="s">
@@ -2246,26 +2270,28 @@
       <c r="I19" s="7"/>
       <c r="J19" s="18"/>
       <c r="K19" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L19" s="27"/>
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="51"/>
+      <c r="A20" s="51">
+        <v>1</v>
+      </c>
       <c r="B20" s="73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>71</v>
       </c>
       <c r="E20" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="7" t="s">
@@ -2274,29 +2300,29 @@
       <c r="I20" s="7"/>
       <c r="J20" s="18"/>
       <c r="K20" s="55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="49"/>
       <c r="B21" s="73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" s="40" t="s">
         <v>28</v>
       </c>
       <c r="E21" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>16</v>
@@ -2306,24 +2332,24 @@
       </c>
       <c r="J21" s="18"/>
       <c r="K21" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L21" s="27"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" s="80"/>
       <c r="D22" s="80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E22" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F22" s="81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="83" t="s">
@@ -2334,26 +2360,28 @@
       </c>
       <c r="J22" s="82"/>
       <c r="K22" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="49"/>
+      <c r="A23" s="49">
+        <v>1</v>
+      </c>
       <c r="B23" s="79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C23" s="80"/>
       <c r="D23" s="83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E23" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F23" s="81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G23" s="83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H23" s="84" t="s">
         <v>11</v>
@@ -2363,59 +2391,61 @@
       </c>
       <c r="J23" s="82"/>
       <c r="K23" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="51"/>
       <c r="B24" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E24" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F24" s="81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G24" s="83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H24" s="84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I24" s="84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J24" s="83" t="s">
         <v>12</v>
       </c>
       <c r="K24" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="47"/>
+      <c r="A25" s="47">
+        <v>1</v>
+      </c>
       <c r="B25" s="79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D25" s="83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E25" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F25" s="81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G25" s="83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H25" s="83" t="s">
         <v>16</v>
@@ -2425,55 +2455,57 @@
       </c>
       <c r="J25" s="82"/>
       <c r="K25" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="49"/>
       <c r="B26" s="79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C26" s="85"/>
       <c r="D26" s="83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E26" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F26" s="81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="84" t="s">
         <v>52</v>
       </c>
       <c r="I26" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J26" s="83"/>
       <c r="K26" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="51"/>
+      <c r="A27" s="51">
+        <v>1</v>
+      </c>
       <c r="B27" s="101" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C27" s="84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" s="84" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E27" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F27" s="81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G27" s="82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H27" s="83" t="s">
         <v>52</v>
@@ -2481,29 +2513,31 @@
       <c r="I27" s="83"/>
       <c r="J27" s="82"/>
       <c r="K27" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L27" s="27"/>
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="51"/>
+      <c r="A28" s="51">
+        <v>1</v>
+      </c>
       <c r="B28" s="101" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C28" s="84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D28" s="84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E28" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F28" s="81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G28" s="82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H28" s="83" t="s">
         <v>52</v>
@@ -2511,7 +2545,7 @@
       <c r="I28" s="83"/>
       <c r="J28" s="82"/>
       <c r="K28" s="55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L28" s="27"/>
     </row>
@@ -2525,10 +2559,10 @@
         <v>34</v>
       </c>
       <c r="E29" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F29" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G29" s="90"/>
       <c r="H29" s="87" t="s">
@@ -2539,7 +2573,7 @@
       </c>
       <c r="J29" s="91"/>
       <c r="K29" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -2552,10 +2586,10 @@
         <v>33</v>
       </c>
       <c r="E30" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F30" s="88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G30" s="91"/>
       <c r="H30" s="26" t="s">
@@ -2566,113 +2600,113 @@
       </c>
       <c r="J30" s="93"/>
       <c r="K30" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="49"/>
       <c r="B31" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C31" s="92"/>
       <c r="D31" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E31" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F31" s="88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H31" s="93" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J31" s="26"/>
       <c r="K31" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="49"/>
       <c r="B32" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C32" s="92"/>
       <c r="D32" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E32" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F32" s="88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H32" s="93" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J32" s="26"/>
       <c r="K32" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="49"/>
       <c r="B33" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C33" s="92"/>
       <c r="D33" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E33" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F33" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H33" s="93" t="s">
         <v>11</v>
       </c>
       <c r="I33" s="94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J33" s="42"/>
       <c r="K33" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="51"/>
       <c r="B34" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" s="95"/>
       <c r="D34" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F34" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H34" s="93" t="s">
         <v>52</v>
@@ -2682,40 +2716,44 @@
       </c>
       <c r="J34" s="96"/>
       <c r="K34" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="49"/>
+      <c r="A35" s="49">
+        <v>1</v>
+      </c>
       <c r="B35" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="98"/>
       <c r="D35" s="26" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="E35" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F35" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H35" s="99" t="s">
         <v>52</v>
       </c>
       <c r="I35" s="99" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J35" s="26"/>
       <c r="K35" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="49"/>
+      <c r="A36" s="49">
+        <v>1</v>
+      </c>
       <c r="B36" s="28" t="s">
         <v>13</v>
       </c>
@@ -2724,13 +2762,13 @@
         <v>14</v>
       </c>
       <c r="E36" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F36" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H36" s="99" t="s">
         <v>11</v>
@@ -2740,7 +2778,7 @@
       </c>
       <c r="J36" s="91"/>
       <c r="K36" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -2753,46 +2791,48 @@
         <v>12</v>
       </c>
       <c r="E37" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F37" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H37" s="99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I37" s="99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J37" s="26" t="s">
         <v>12</v>
       </c>
       <c r="K37" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="49"/>
+      <c r="A38" s="49">
+        <v>1</v>
+      </c>
       <c r="B38" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F38" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H38" s="26" t="s">
         <v>16</v>
@@ -2802,28 +2842,30 @@
       </c>
       <c r="J38" s="100"/>
       <c r="K38" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="49"/>
+      <c r="A39" s="49">
+        <v>1</v>
+      </c>
       <c r="B39" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D39" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F39" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H39" s="26" t="s">
         <v>16</v>
@@ -2833,28 +2875,30 @@
       </c>
       <c r="J39" s="100"/>
       <c r="K39" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="49"/>
+      <c r="A40" s="49" t="s">
+        <v>214</v>
+      </c>
       <c r="B40" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F40" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H40" s="26" t="s">
         <v>16</v>
@@ -2864,28 +2908,30 @@
       </c>
       <c r="J40" s="100"/>
       <c r="K40" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="49"/>
+      <c r="A41" s="49">
+        <v>1</v>
+      </c>
       <c r="B41" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D41" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F41" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H41" s="26" t="s">
         <v>16</v>
@@ -2895,28 +2941,30 @@
       </c>
       <c r="J41" s="100"/>
       <c r="K41" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="49"/>
+      <c r="A42" s="49">
+        <v>1</v>
+      </c>
       <c r="B42" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D42" s="26" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F42" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H42" s="26" t="s">
         <v>16</v>
@@ -2926,28 +2974,30 @@
       </c>
       <c r="J42" s="100"/>
       <c r="K42" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="49"/>
+      <c r="A43" s="49">
+        <v>1</v>
+      </c>
       <c r="B43" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D43" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F43" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H43" s="26" t="s">
         <v>11</v>
@@ -2968,13 +3018,13 @@
         <v>27</v>
       </c>
       <c r="E44" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F44" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H44" s="26" t="s">
         <v>11</v>
@@ -2984,7 +3034,7 @@
       </c>
       <c r="J44" s="91"/>
       <c r="K44" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -2997,13 +3047,13 @@
         <v>74</v>
       </c>
       <c r="E45" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F45" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H45" s="26" t="s">
         <v>18</v>
@@ -3026,13 +3076,13 @@
         <v>27</v>
       </c>
       <c r="E46" s="76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F46" s="76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G46" s="77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H46" s="78" t="s">
         <v>11</v>
@@ -3042,7 +3092,7 @@
       </c>
       <c r="J46" s="91"/>
       <c r="K46" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -3052,13 +3102,13 @@
       </c>
       <c r="C47" s="75"/>
       <c r="D47" s="78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E47" s="76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F47" s="76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G47" s="77"/>
       <c r="H47" s="78" t="s">
@@ -3069,7 +3119,7 @@
       </c>
       <c r="J47" s="77"/>
       <c r="K47" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -3082,10 +3132,10 @@
         <v>23</v>
       </c>
       <c r="E48" s="76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F48" s="76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G48" s="77"/>
       <c r="H48" s="78" t="s">
@@ -3096,7 +3146,7 @@
       </c>
       <c r="J48" s="77"/>
       <c r="K48" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -3109,10 +3159,10 @@
         <v>26</v>
       </c>
       <c r="E49" s="76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F49" s="76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G49" s="77"/>
       <c r="H49" s="78" t="s">
@@ -3123,11 +3173,13 @@
       </c>
       <c r="J49" s="77"/>
       <c r="K49" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
+      <c r="A50" s="118" t="s">
+        <v>214</v>
+      </c>
       <c r="B50" s="74" t="s">
         <v>88</v>
       </c>
@@ -3136,13 +3188,13 @@
         <v>24</v>
       </c>
       <c r="E50" s="76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F50" s="76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G50" s="77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H50" s="78" t="s">
         <v>52</v>
@@ -3152,11 +3204,13 @@
       </c>
       <c r="J50" s="77"/>
       <c r="K50" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
+      <c r="A51" s="118" t="s">
+        <v>214</v>
+      </c>
       <c r="B51" s="74" t="s">
         <v>89</v>
       </c>
@@ -3165,13 +3219,13 @@
         <v>25</v>
       </c>
       <c r="E51" s="76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F51" s="76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G51" s="77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H51" s="78" t="s">
         <v>52</v>
@@ -3181,26 +3235,28 @@
       </c>
       <c r="J51" s="77"/>
       <c r="K51" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
+      <c r="A52" s="5">
+        <v>1</v>
+      </c>
       <c r="B52" s="74" t="s">
         <v>90</v>
       </c>
       <c r="C52" s="75"/>
       <c r="D52" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E52" s="76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F52" s="76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G52" s="77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H52" s="78" t="s">
         <v>52</v>
@@ -3210,83 +3266,83 @@
       </c>
       <c r="J52" s="77"/>
       <c r="K52" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="47"/>
+      <c r="A53" s="118"/>
       <c r="B53" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="C53" s="75" t="s">
-        <v>151</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C53" s="75"/>
       <c r="D53" s="78" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="E53" s="76" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F53" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="G53" s="77"/>
+        <v>175</v>
+      </c>
+      <c r="G53" s="77" t="s">
+        <v>201</v>
+      </c>
       <c r="H53" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="77"/>
+      <c r="K53" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" s="47"/>
+      <c r="B54" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="F54" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="G54" s="77"/>
+      <c r="H54" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I53" s="78" t="s">
+      <c r="I54" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="77"/>
-      <c r="K53" s="44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
-      <c r="B54" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="F54" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J54" s="18"/>
-      <c r="K54" s="21" t="s">
-        <v>75</v>
+      <c r="J54" s="77"/>
+      <c r="K54" s="44" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E55" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F55" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="20" t="s">
@@ -3303,19 +3359,19 @@
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
       <c r="B56" s="12" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C56" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="E56" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F56" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="20" t="s">
@@ -3330,20 +3386,21 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B57" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>36</v>
+      <c r="A57" s="5"/>
+      <c r="B57" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E57" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F57" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="20" t="s">
@@ -3359,19 +3416,19 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B58" s="13" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E58" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F58" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="20" t="s">
@@ -3387,19 +3444,19 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B59" s="13" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E59" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F59" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="20" t="s">
@@ -3415,19 +3472,19 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B60" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E60" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F60" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="20" t="s">
@@ -3443,19 +3500,19 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B61" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E61" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F61" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="20" t="s">
@@ -3470,20 +3527,20 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B62" s="36" t="s">
-        <v>60</v>
+      <c r="B62" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E62" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F62" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="20" t="s">
@@ -3498,20 +3555,20 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B63" s="13" t="s">
-        <v>61</v>
+      <c r="B63" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E63" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F63" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="20" t="s">
@@ -3526,48 +3583,48 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B64" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>43</v>
+      <c r="B64" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E64" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F64" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="G64" s="11"/>
-      <c r="H64" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J64" s="39"/>
-      <c r="K64" s="22" t="s">
-        <v>76</v>
+        <v>179</v>
+      </c>
+      <c r="G64" s="9"/>
+      <c r="H64" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" s="18"/>
+      <c r="K64" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65" s="64" t="s">
         <v>152</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E65" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F65" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="16" t="s">
@@ -3577,25 +3634,25 @@
         <v>15</v>
       </c>
       <c r="J65" s="39"/>
-      <c r="K65" s="21" t="s">
-        <v>75</v>
+      <c r="K65" s="22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C66" s="64" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E66" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F66" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G66" s="11"/>
       <c r="H66" s="16" t="s">
@@ -3611,19 +3668,19 @@
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67" s="64" t="s">
         <v>152</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E67" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F67" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G67" s="11"/>
       <c r="H67" s="16" t="s">
@@ -3639,19 +3696,19 @@
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C68" s="64" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E68" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F68" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G68" s="11"/>
       <c r="H68" s="16" t="s">
@@ -3661,75 +3718,77 @@
         <v>15</v>
       </c>
       <c r="J68" s="39"/>
-      <c r="K68" s="33" t="s">
-        <v>115</v>
+      <c r="K68" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="64"/>
+        <v>66</v>
+      </c>
+      <c r="C69" s="64" t="s">
+        <v>152</v>
+      </c>
       <c r="D69" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E69" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F69" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J69" s="18"/>
-      <c r="K69" s="38" t="s">
-        <v>124</v>
+        <v>15</v>
+      </c>
+      <c r="J69" s="39"/>
+      <c r="K69" s="33" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="64"/>
       <c r="D70" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E70" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F70" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G70" s="11"/>
       <c r="H70" s="16" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="J70" s="18"/>
       <c r="K70" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" s="64"/>
       <c r="D71" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E71" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F71" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="16" t="s">
@@ -3740,22 +3799,22 @@
       </c>
       <c r="J71" s="18"/>
       <c r="K71" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="64"/>
-      <c r="D72" s="17" t="s">
-        <v>51</v>
+      <c r="D72" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="E72" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F72" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G72" s="11"/>
       <c r="H72" s="16" t="s">
@@ -3766,46 +3825,48 @@
       </c>
       <c r="J72" s="18"/>
       <c r="K72" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B73" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" s="23"/>
-      <c r="D73" s="20" t="s">
-        <v>79</v>
+      <c r="B73" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="64"/>
+      <c r="D73" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="E73" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F73" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G73" s="11"/>
-      <c r="H73" s="31" t="s">
+      <c r="H73" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I73" s="16"/>
+      <c r="I73" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="J73" s="18"/>
-      <c r="K73" s="7" t="s">
-        <v>111</v>
+      <c r="K73" s="38" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B74" s="24" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E74" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F74" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="31" t="s">
@@ -3814,35 +3875,59 @@
       <c r="I74" s="16"/>
       <c r="J74" s="18"/>
       <c r="K74" s="7" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B75" s="34" t="s">
-        <v>113</v>
+      <c r="B75" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="C75" s="23"/>
-      <c r="D75" s="29" t="s">
-        <v>114</v>
+      <c r="D75" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="E75" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F75" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G75" s="11"/>
       <c r="H75" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="I75" s="35"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I75" s="16"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B76" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="23"/>
+      <c r="D76" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="F76" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="G76" s="11"/>
+      <c r="H76" s="31" t="s">
         <v>116</v>
       </c>
+      <c r="I76" s="35"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="29" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K75">
+  <autoFilter ref="A5:K76">
     <filterColumn colId="4">
       <filters>
         <filter val="Agent Variable"/>

--- a/data_input/analytics/OLAP MultiBOM Flame GPU.xlsx
+++ b/data_input/analytics/OLAP MultiBOM Flame GPU.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D794AC-A773-4FEF-8852-5795042BE989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15480" windowHeight="7440" tabRatio="587"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OLAP MultiBOM" sheetId="6" r:id="rId1"/>
@@ -12,12 +13,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$K$76</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="212">
   <si>
     <t>Эксплуатация</t>
   </si>
@@ -88,18 +100,12 @@
     <t>Даты</t>
   </si>
   <si>
-    <t>mi17_count</t>
-  </si>
-  <si>
     <t>trigger_program_mi8</t>
   </si>
   <si>
     <t>trigger_program_mi17</t>
   </si>
   <si>
-    <t>total_count</t>
-  </si>
-  <si>
     <t>dates</t>
   </si>
   <si>
@@ -350,9 +356,6 @@
   </si>
   <si>
     <t>Каждый день ops_counter_mi8 = mi8_count, ops_counter_mi17 = mi17_count</t>
-  </si>
-  <si>
-    <t>mi8_count</t>
   </si>
   <si>
     <t>Контроль наработки</t>
@@ -820,9 +823,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -1211,10 +1214,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1243,7 +1246,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1268,7 +1271,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1355,10 +1358,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -1377,10 +1380,10 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1392,10 +1395,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1413,16 +1416,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1449,13 +1452,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1500,15 +1506,12 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1599,6 +1602,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1634,6 +1654,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1809,37 +1846,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="65" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.7265625" style="70" customWidth="1"/>
-    <col min="7" max="7" width="30.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.1796875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="163.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.54296875" style="1"/>
+    <col min="2" max="2" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.7109375" style="70" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="163.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="61"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="61"/>
       <c r="D2" s="8"/>
@@ -1850,250 +1887,250 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="104" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="2"/>
       <c r="C4" s="61"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
       <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="59" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C6" s="63"/>
       <c r="D6" s="72" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="45" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="111" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="111" t="s">
-        <v>176</v>
-      </c>
-      <c r="G7" s="108" t="s">
-        <v>201</v>
-      </c>
-      <c r="H7" s="113" t="s">
-        <v>159</v>
-      </c>
-      <c r="I7" s="115" t="s">
-        <v>159</v>
+        <v>114</v>
+      </c>
+      <c r="E7" s="112" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="112" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="116" t="s">
+        <v>156</v>
       </c>
       <c r="J7" s="66" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K7" s="52" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
-      <c r="B8" s="104" t="s">
-        <v>119</v>
+      <c r="B8" s="105" t="s">
+        <v>116</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="116"/>
+        <v>160</v>
+      </c>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="117"/>
       <c r="J8" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="K8" s="106" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+      <c r="K8" s="107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
-      <c r="B9" s="105"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="116"/>
+        <v>161</v>
+      </c>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="K9" s="107"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+      <c r="K9" s="108"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="112"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="116"/>
+        <v>96</v>
+      </c>
+      <c r="E10" s="113"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="117"/>
       <c r="J10" s="66" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K10" s="102" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
       <c r="B11" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H11" s="86" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I11" s="86" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J11" s="30"/>
       <c r="K11" s="58" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
       <c r="B12" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="86" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I12" s="86" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="51"/>
       <c r="B13" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="40" t="s">
@@ -2102,25 +2139,25 @@
       <c r="I13" s="40"/>
       <c r="J13" s="39"/>
       <c r="K13" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="51"/>
       <c r="B14" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="40" t="s">
@@ -2129,25 +2166,25 @@
       <c r="I14" s="40"/>
       <c r="J14" s="39"/>
       <c r="K14" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G15" s="30"/>
       <c r="H15" s="40" t="s">
@@ -2156,25 +2193,25 @@
       <c r="I15" s="40"/>
       <c r="J15" s="39"/>
       <c r="K15" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
       <c r="B16" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="40" t="s">
@@ -2183,25 +2220,25 @@
       <c r="I16" s="40"/>
       <c r="J16" s="39"/>
       <c r="K16" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="51"/>
       <c r="B17" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="40" t="s">
@@ -2210,10 +2247,10 @@
       <c r="I17" s="40"/>
       <c r="J17" s="39"/>
       <c r="K17" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="49">
         <v>1</v>
       </c>
@@ -2221,16 +2258,16 @@
         <v>20</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F18" s="69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="7" t="s">
@@ -2241,88 +2278,88 @@
       </c>
       <c r="J18" s="18"/>
       <c r="K18" s="54" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="51">
         <v>1</v>
       </c>
       <c r="B19" s="73" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E19" s="69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="18"/>
       <c r="K19" s="55" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L19" s="27"/>
     </row>
-    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="51">
         <v>1</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E20" s="69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="18"/>
       <c r="K20" s="55" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L20" s="27"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
       <c r="B21" s="73" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" s="69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>16</v>
@@ -2332,24 +2369,24 @@
       </c>
       <c r="J21" s="18"/>
       <c r="K21" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L21" s="27"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="79" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C22" s="80"/>
       <c r="D22" s="80" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E22" s="81" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F22" s="81" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="83" t="s">
@@ -2360,28 +2397,28 @@
       </c>
       <c r="J22" s="82"/>
       <c r="K22" s="46" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="49">
         <v>1</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C23" s="80"/>
       <c r="D23" s="83" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E23" s="81" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F23" s="81" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G23" s="83" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H23" s="84" t="s">
         <v>11</v>
@@ -2391,61 +2428,61 @@
       </c>
       <c r="J23" s="82"/>
       <c r="K23" s="54" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="51"/>
       <c r="B24" s="79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="83" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E24" s="81" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F24" s="81" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G24" s="83" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H24" s="84" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I24" s="84" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J24" s="83" t="s">
         <v>12</v>
       </c>
       <c r="K24" s="57" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="47">
         <v>1</v>
       </c>
       <c r="B25" s="79" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D25" s="83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E25" s="81" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F25" s="81" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G25" s="83" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H25" s="83" t="s">
         <v>16</v>
@@ -2455,114 +2492,114 @@
       </c>
       <c r="J25" s="82"/>
       <c r="K25" s="44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
       <c r="B26" s="79" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C26" s="85"/>
       <c r="D26" s="83" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E26" s="81" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F26" s="81" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="84" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I26" s="84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J26" s="83"/>
       <c r="K26" s="60" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="51">
         <v>1</v>
       </c>
       <c r="B27" s="101" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C27" s="84" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D27" s="84" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E27" s="81" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F27" s="81" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G27" s="82" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H27" s="83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I27" s="83"/>
       <c r="J27" s="82"/>
       <c r="K27" s="55" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L27" s="27"/>
     </row>
-    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="51">
         <v>1</v>
       </c>
       <c r="B28" s="101" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C28" s="84" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D28" s="84" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E28" s="81" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F28" s="81" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G28" s="82" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H28" s="83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I28" s="83"/>
       <c r="J28" s="82"/>
       <c r="K28" s="55" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L28" s="27"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="50"/>
       <c r="B29" s="67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29" s="87"/>
       <c r="D29" s="87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E29" s="88" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F29" s="89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G29" s="90"/>
       <c r="H29" s="87" t="s">
@@ -2573,153 +2610,153 @@
       </c>
       <c r="J29" s="91"/>
       <c r="K29" s="48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="97" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="92"/>
       <c r="D30" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E30" s="88" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F30" s="88" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G30" s="91"/>
       <c r="H30" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J30" s="93"/>
       <c r="K30" s="29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="49"/>
       <c r="B31" s="28" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C31" s="92"/>
       <c r="D31" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E31" s="88" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F31" s="88" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H31" s="93" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="93" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J31" s="26"/>
       <c r="K31" s="44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="49"/>
       <c r="B32" s="28" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C32" s="92"/>
       <c r="D32" s="26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E32" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="F32" s="88" t="s">
-        <v>175</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>201</v>
-      </c>
       <c r="H32" s="93" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="93" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J32" s="26"/>
       <c r="K32" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="49"/>
       <c r="B33" s="28" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C33" s="92"/>
       <c r="D33" s="42" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E33" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="F33" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>201</v>
-      </c>
       <c r="H33" s="93" t="s">
         <v>11</v>
       </c>
       <c r="I33" s="94" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J33" s="42"/>
       <c r="K33" s="37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="51"/>
       <c r="B34" s="41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C34" s="95"/>
       <c r="D34" s="42" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E34" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="F34" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>201</v>
-      </c>
       <c r="H34" s="93" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I34" s="93" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J34" s="96"/>
       <c r="K34" s="56" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="49">
         <v>1</v>
       </c>
@@ -2728,29 +2765,29 @@
       </c>
       <c r="C35" s="98"/>
       <c r="D35" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E35" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="F35" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>201</v>
-      </c>
       <c r="H35" s="99" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I35" s="99" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J35" s="26"/>
       <c r="K35" s="60" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="49">
         <v>1</v>
       </c>
@@ -2762,13 +2799,13 @@
         <v>14</v>
       </c>
       <c r="E36" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="F36" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>201</v>
       </c>
       <c r="H36" s="99" t="s">
         <v>11</v>
@@ -2778,10 +2815,10 @@
       </c>
       <c r="J36" s="91"/>
       <c r="K36" s="54" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="51"/>
       <c r="B37" s="28" t="s">
         <v>2</v>
@@ -2791,48 +2828,48 @@
         <v>12</v>
       </c>
       <c r="E37" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="F37" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>201</v>
-      </c>
       <c r="H37" s="99" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I37" s="99" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J37" s="26" t="s">
         <v>12</v>
       </c>
       <c r="K37" s="57" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="49">
         <v>1</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="92" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="F38" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>201</v>
       </c>
       <c r="H38" s="26" t="s">
         <v>16</v>
@@ -2842,30 +2879,30 @@
       </c>
       <c r="J38" s="100"/>
       <c r="K38" s="46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="49">
         <v>1</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C39" s="92" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D39" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="F39" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>201</v>
       </c>
       <c r="H39" s="26" t="s">
         <v>16</v>
@@ -2875,30 +2912,30 @@
       </c>
       <c r="J39" s="100"/>
       <c r="K39" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="49" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C40" s="92" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F40" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="F40" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>201</v>
       </c>
       <c r="H40" s="26" t="s">
         <v>16</v>
@@ -2908,30 +2945,30 @@
       </c>
       <c r="J40" s="100"/>
       <c r="K40" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="49">
         <v>1</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" s="92" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D41" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F41" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="F41" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="G41" s="26" t="s">
-        <v>201</v>
       </c>
       <c r="H41" s="26" t="s">
         <v>16</v>
@@ -2941,30 +2978,30 @@
       </c>
       <c r="J41" s="100"/>
       <c r="K41" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="49">
         <v>1</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" s="92" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D42" s="26" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="F42" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>201</v>
       </c>
       <c r="H42" s="26" t="s">
         <v>16</v>
@@ -2974,10 +3011,10 @@
       </c>
       <c r="J42" s="100"/>
       <c r="K42" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="49">
         <v>1</v>
       </c>
@@ -2985,19 +3022,19 @@
         <v>19</v>
       </c>
       <c r="C43" s="92" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D43" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="F43" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>201</v>
       </c>
       <c r="H43" s="26" t="s">
         <v>11</v>
@@ -3008,23 +3045,23 @@
       <c r="J43" s="91"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="92"/>
       <c r="D44" s="92" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E44" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F44" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="F44" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>201</v>
       </c>
       <c r="H44" s="26" t="s">
         <v>11</v>
@@ -3034,26 +3071,26 @@
       </c>
       <c r="J44" s="91"/>
       <c r="K44" s="46" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="49"/>
       <c r="B45" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C45" s="92"/>
       <c r="D45" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F45" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="26" t="s">
         <v>198</v>
-      </c>
-      <c r="F45" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>201</v>
       </c>
       <c r="H45" s="26" t="s">
         <v>18</v>
@@ -3063,26 +3100,26 @@
       </c>
       <c r="J45" s="91"/>
       <c r="K45" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="74" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="75"/>
       <c r="D46" s="78" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E46" s="76" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F46" s="76" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G46" s="77" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H46" s="78" t="s">
         <v>11</v>
@@ -3092,23 +3129,23 @@
       </c>
       <c r="J46" s="91"/>
       <c r="K46" s="46" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="47"/>
       <c r="B47" s="74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C47" s="75"/>
       <c r="D47" s="78" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E47" s="76" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F47" s="76" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G47" s="77"/>
       <c r="H47" s="78" t="s">
@@ -3119,23 +3156,23 @@
       </c>
       <c r="J47" s="77"/>
       <c r="K47" s="44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
       <c r="B48" s="74" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C48" s="75"/>
-      <c r="D48" s="75" t="s">
-        <v>23</v>
+      <c r="D48" s="78" t="s">
+        <v>107</v>
       </c>
       <c r="E48" s="76" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F48" s="76" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G48" s="77"/>
       <c r="H48" s="78" t="s">
@@ -3146,23 +3183,23 @@
       </c>
       <c r="J48" s="77"/>
       <c r="K48" s="44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C49" s="75"/>
-      <c r="D49" s="75" t="s">
-        <v>26</v>
+      <c r="D49" s="78" t="s">
+        <v>30</v>
       </c>
       <c r="E49" s="76" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F49" s="76" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G49" s="77"/>
       <c r="H49" s="78" t="s">
@@ -3173,119 +3210,119 @@
       </c>
       <c r="J49" s="77"/>
       <c r="K49" s="46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="118" t="s">
-        <v>214</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="103" t="s">
+        <v>211</v>
       </c>
       <c r="B50" s="74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C50" s="75"/>
       <c r="D50" s="78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E50" s="76" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F50" s="76" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G50" s="77" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H50" s="78" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I50" s="78" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J50" s="77"/>
       <c r="K50" s="37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="118" t="s">
-        <v>214</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="103" t="s">
+        <v>211</v>
       </c>
       <c r="B51" s="74" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C51" s="75"/>
       <c r="D51" s="78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E51" s="76" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F51" s="76" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G51" s="77" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H51" s="78" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I51" s="78" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J51" s="77"/>
       <c r="K51" s="37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>1</v>
       </c>
       <c r="B52" s="74" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52" s="75"/>
       <c r="D52" s="78" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E52" s="76" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F52" s="76" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G52" s="77" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H52" s="78" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I52" s="78" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J52" s="77"/>
       <c r="K52" s="37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="118"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="103"/>
       <c r="B53" s="74" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="75"/>
       <c r="D53" s="78" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E53" s="76" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F53" s="76" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G53" s="77" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H53" s="78" t="s">
         <v>11</v>
@@ -3295,25 +3332,25 @@
       </c>
       <c r="J53" s="77"/>
       <c r="K53" s="37" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="47"/>
       <c r="B54" s="74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C54" s="75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D54" s="78" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E54" s="76" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F54" s="76" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G54" s="77"/>
       <c r="H54" s="78" t="s">
@@ -3324,25 +3361,25 @@
       </c>
       <c r="J54" s="77"/>
       <c r="K54" s="44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C55" s="63" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E55" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F55" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="20" t="s">
@@ -3353,25 +3390,25 @@
       </c>
       <c r="J55" s="18"/>
       <c r="K55" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C56" s="63" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E56" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F56" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="20" t="s">
@@ -3382,25 +3419,25 @@
       </c>
       <c r="J56" s="18"/>
       <c r="K56" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="63" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E57" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F57" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="20" t="s">
@@ -3411,24 +3448,24 @@
       </c>
       <c r="J57" s="18"/>
       <c r="K57" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E58" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F58" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="20" t="s">
@@ -3439,24 +3476,24 @@
       </c>
       <c r="J58" s="18"/>
       <c r="K58" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E59" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F59" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="20" t="s">
@@ -3467,24 +3504,24 @@
       </c>
       <c r="J59" s="18"/>
       <c r="K59" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B60" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E60" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F60" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="20" t="s">
@@ -3495,24 +3532,24 @@
       </c>
       <c r="J60" s="18"/>
       <c r="K60" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B61" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E61" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F61" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="20" t="s">
@@ -3523,24 +3560,24 @@
       </c>
       <c r="J61" s="18"/>
       <c r="K61" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E62" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F62" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="20" t="s">
@@ -3551,24 +3588,24 @@
       </c>
       <c r="J62" s="18"/>
       <c r="K62" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E63" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F63" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="20" t="s">
@@ -3579,24 +3616,24 @@
       </c>
       <c r="J63" s="18"/>
       <c r="K63" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E64" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F64" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="20" t="s">
@@ -3607,24 +3644,24 @@
       </c>
       <c r="J64" s="18"/>
       <c r="K64" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C65" s="64" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E65" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F65" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="16" t="s">
@@ -3635,24 +3672,24 @@
       </c>
       <c r="J65" s="39"/>
       <c r="K65" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66" s="64" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E66" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F66" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G66" s="11"/>
       <c r="H66" s="16" t="s">
@@ -3663,24 +3700,24 @@
       </c>
       <c r="J66" s="39"/>
       <c r="K66" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C67" s="64" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E67" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F67" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G67" s="11"/>
       <c r="H67" s="16" t="s">
@@ -3691,24 +3728,24 @@
       </c>
       <c r="J67" s="39"/>
       <c r="K67" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C68" s="64" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E68" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F68" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G68" s="11"/>
       <c r="H68" s="16" t="s">
@@ -3719,24 +3756,24 @@
       </c>
       <c r="J68" s="39"/>
       <c r="K68" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C69" s="64" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E69" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F69" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G69" s="11"/>
       <c r="H69" s="16" t="s">
@@ -3747,22 +3784,22 @@
       </c>
       <c r="J69" s="39"/>
       <c r="K69" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C70" s="64"/>
       <c r="D70" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E70" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F70" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G70" s="11"/>
       <c r="H70" s="16" t="s">
@@ -3773,161 +3810,161 @@
       </c>
       <c r="J70" s="18"/>
       <c r="K70" s="38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C71" s="64"/>
       <c r="D71" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E71" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F71" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J71" s="18"/>
       <c r="K71" s="38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C72" s="64"/>
       <c r="D72" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E72" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F72" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G72" s="11"/>
       <c r="H72" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J72" s="18"/>
       <c r="K72" s="38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C73" s="64"/>
       <c r="D73" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E73" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F73" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J73" s="18"/>
       <c r="K73" s="38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E74" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F74" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I74" s="16"/>
       <c r="J74" s="18"/>
       <c r="K74" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E75" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F75" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G75" s="11"/>
       <c r="H75" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I75" s="16"/>
       <c r="J75" s="18"/>
       <c r="K75" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E76" s="68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F76" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G76" s="11"/>
       <c r="H76" s="31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I76" s="35"/>
       <c r="J76" s="39"/>
       <c r="K76" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K76">
+  <autoFilter ref="A5:K76" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="Agent Variable"/>

--- a/data_input/analytics/OLAP MultiBOM Flame GPU.xlsx
+++ b/data_input/analytics/OLAP MultiBOM Flame GPU.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CF883E-D4A4-4EE7-9B41-02110DA2B61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587"/>
   </bookViews>
   <sheets>
     <sheet name="OLAP MultiBOM" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$K$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$K$81</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="214">
   <si>
     <t>Эксплуатация</t>
   </si>
@@ -684,9 +683,6 @@
     <t>partno_comp</t>
   </si>
   <si>
-    <t>Чертежный номер агрегата</t>
-  </si>
-  <si>
     <t>Environment Property3</t>
   </si>
   <si>
@@ -702,16 +698,10 @@
     <t>partseqno_i</t>
   </si>
   <si>
-    <t>Заводской номер цифровой</t>
-  </si>
-  <si>
     <t>psn</t>
   </si>
   <si>
     <t>address_i</t>
-  </si>
-  <si>
-    <t>Собственник цифровой</t>
   </si>
   <si>
     <t>Структура данных ETL цикла на GPU</t>
@@ -730,9 +720,6 @@
     <t>status_id</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>flight_program_ac</t>
   </si>
   <si>
@@ -776,12 +763,6 @@
   </si>
   <si>
     <t>Формируется по результатам имитации на всю глубину прогноза</t>
-  </si>
-  <si>
-    <t>Чертежный номер цифровой</t>
-  </si>
-  <si>
-    <t>Это перечень номеров для фильтрации heli_pandas и справочника агрегатов</t>
   </si>
   <si>
     <r>
@@ -802,13 +783,34 @@
   <si>
     <t>Номер ВС цифровой</t>
   </si>
+  <si>
+    <t>Чертежный номер агрегата в AMOS</t>
+  </si>
+  <si>
+    <t>Чертежный номер цифровой AMOS</t>
+  </si>
+  <si>
+    <t>Заводской номер цифровой AMOS</t>
+  </si>
+  <si>
+    <t>Собственник цифровой AMOS</t>
+  </si>
+  <si>
+    <t>Это перечень номеров для фильтрации heli_pandas на - чатсичная выборка из partseqno_i</t>
+  </si>
+  <si>
+    <t>1 - начало</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -1205,10 +1207,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1237,7 +1239,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1259,7 +1261,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1292,28 +1294,25 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1340,10 +1339,10 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -1352,7 +1351,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1362,10 +1361,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1377,10 +1376,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1398,16 +1397,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1428,20 +1427,19 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1457,10 +1455,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1493,11 +1491,15 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1588,23 +1590,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1640,23 +1625,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1832,93 +1800,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.7109375" style="67" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="163.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.5703125" style="1"/>
+    <col min="2" max="2" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="61" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.7265625" style="66" customWidth="1"/>
+    <col min="7" max="7" width="30.81640625" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1796875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="163.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
-      <c r="C1" s="58"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="57"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
-      <c r="C2" s="58"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="58"/>
+      <c r="C4" s="57"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="50"/>
       <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>141</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E5" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>180</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>181</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>176</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>148</v>
@@ -1930,19 +1896,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="48">
+        <v>1</v>
+      </c>
       <c r="B6" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="65" t="s">
         <v>166</v>
       </c>
       <c r="G6" s="9"/>
@@ -1953,12 +1921,14 @@
         <v>14</v>
       </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="99" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="K6" s="97" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="49">
+        <v>2</v>
+      </c>
       <c r="B7" s="12" t="s">
         <v>102</v>
       </c>
@@ -1966,68 +1936,74 @@
       <c r="D7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="111" t="s">
+      <c r="F7" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="108" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="113" t="s">
+      <c r="G7" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="K7" s="100" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="104" t="s">
+      <c r="K7" s="98" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="49">
+        <v>2</v>
+      </c>
+      <c r="B8" s="102" t="s">
         <v>114</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="63" t="s">
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="106" t="s">
+      <c r="K8" s="104" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="105"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="49">
+        <v>2</v>
+      </c>
+      <c r="B9" s="103"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="63" t="s">
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="K9" s="107"/>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="K9" s="105"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="49">
+        <v>2</v>
+      </c>
       <c r="B10" s="12" t="s">
         <v>78</v>
       </c>
@@ -2035,20 +2011,22 @@
       <c r="D10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="112"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="63" t="s">
+      <c r="E10" s="110"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="K10" s="97" t="s">
+      <c r="K10" s="95" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="49">
+        <v>1</v>
+      </c>
       <c r="B11" s="12" t="s">
         <v>77</v>
       </c>
@@ -2056,28 +2034,28 @@
       <c r="D11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="65" t="s">
         <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H11" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="82" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="30"/>
-      <c r="K11" s="56" t="s">
+      <c r="K11" s="55" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="49"/>
       <c r="B12" s="12" t="s">
         <v>113</v>
       </c>
@@ -2085,17 +2063,17 @@
       <c r="D12" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="65" t="s">
         <v>166</v>
       </c>
       <c r="G12" s="30"/>
-      <c r="H12" s="83" t="s">
+      <c r="H12" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="83" t="s">
+      <c r="I12" s="82" t="s">
         <v>48</v>
       </c>
       <c r="J12" s="19"/>
@@ -2103,8 +2081,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="49">
+        <v>1</v>
+      </c>
       <c r="B13" s="12" t="s">
         <v>79</v>
       </c>
@@ -2114,10 +2094,10 @@
       <c r="D13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="65" t="s">
         <v>166</v>
       </c>
       <c r="G13" s="30"/>
@@ -2130,8 +2110,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="49">
+        <v>1</v>
+      </c>
       <c r="B14" s="12" t="s">
         <v>80</v>
       </c>
@@ -2141,10 +2123,10 @@
       <c r="D14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="65" t="s">
         <v>166</v>
       </c>
       <c r="G14" s="30"/>
@@ -2157,8 +2139,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="49">
+        <v>2</v>
+      </c>
       <c r="B15" s="12" t="s">
         <v>81</v>
       </c>
@@ -2168,10 +2152,10 @@
       <c r="D15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="65" t="s">
         <v>166</v>
       </c>
       <c r="G15" s="30"/>
@@ -2184,8 +2168,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="49">
+        <v>1</v>
+      </c>
       <c r="B16" s="12" t="s">
         <v>82</v>
       </c>
@@ -2195,10 +2181,10 @@
       <c r="D16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="65" t="s">
         <v>166</v>
       </c>
       <c r="G16" s="30"/>
@@ -2211,8 +2197,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="49">
+        <v>1</v>
+      </c>
       <c r="B17" s="12" t="s">
         <v>83</v>
       </c>
@@ -2222,10 +2210,10 @@
       <c r="D17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="65" t="s">
         <v>166</v>
       </c>
       <c r="G17" s="30"/>
@@ -2238,7 +2226,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="48">
         <v>1</v>
       </c>
@@ -2251,10 +2239,10 @@
       <c r="D18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="65" t="s">
         <v>166</v>
       </c>
       <c r="G18" s="30"/>
@@ -2265,15 +2253,15 @@
         <v>11</v>
       </c>
       <c r="J18" s="18"/>
-      <c r="K18" s="52" t="s">
+      <c r="K18" s="51" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50">
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="49">
         <v>1</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="69" t="s">
         <v>133</v>
       </c>
       <c r="C19" s="39" t="s">
@@ -2282,10 +2270,10 @@
       <c r="D19" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="65" t="s">
         <v>166</v>
       </c>
       <c r="G19" s="30"/>
@@ -2294,16 +2282,16 @@
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="53" t="s">
+      <c r="K19" s="52" t="s">
         <v>132</v>
       </c>
       <c r="L19" s="27"/>
     </row>
-    <row r="20" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50">
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="49">
         <v>1</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="69" t="s">
         <v>134</v>
       </c>
       <c r="C20" s="39" t="s">
@@ -2312,10 +2300,10 @@
       <c r="D20" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="65" t="s">
         <v>166</v>
       </c>
       <c r="G20" s="30"/>
@@ -2324,14 +2312,16 @@
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="53" t="s">
+      <c r="K20" s="52" t="s">
         <v>131</v>
       </c>
       <c r="L20" s="27"/>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="70" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="48">
+        <v>1</v>
+      </c>
+      <c r="B21" s="69" t="s">
         <v>92</v>
       </c>
       <c r="C21" s="39" t="s">
@@ -2340,14 +2330,14 @@
       <c r="D21" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="65" t="s">
         <v>166</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>14</v>
@@ -2361,598 +2351,591 @@
       </c>
       <c r="L21" s="27"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77" t="s">
+      <c r="C22" s="76"/>
+      <c r="D22" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="78" t="s">
+      <c r="E22" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="78" t="s">
+      <c r="F22" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="G22" s="79"/>
-      <c r="H22" s="81" t="s">
+      <c r="G22" s="78"/>
+      <c r="H22" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="81" t="s">
+      <c r="I22" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="57" t="s">
+      <c r="J22" s="78"/>
+      <c r="K22" s="56" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="48"/>
+      <c r="B23" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="76"/>
+      <c r="D23" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="78"/>
+      <c r="K23" s="51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="49"/>
+      <c r="B24" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="J24" s="79"/>
+      <c r="K24" s="54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="46"/>
+      <c r="B25" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="78"/>
+      <c r="K25" s="56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="48"/>
+      <c r="B26" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="81"/>
+      <c r="D26" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="78"/>
+      <c r="H26" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="79"/>
+      <c r="K26" s="56" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="48">
-        <v>1</v>
-      </c>
-      <c r="B23" s="76" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="E23" s="78" t="s">
+    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="49"/>
+      <c r="B27" s="117" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="F23" s="78" t="s">
+      <c r="F27" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="H23" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="52" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="80" t="s">
-        <v>203</v>
-      </c>
-      <c r="E24" s="78" t="s">
+      <c r="G27" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="79"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="49"/>
+      <c r="B28" s="117" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="78" t="s">
+      <c r="F28" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="80" t="s">
-        <v>182</v>
-      </c>
-      <c r="H24" s="81" t="s">
-        <v>150</v>
-      </c>
-      <c r="I24" s="81" t="s">
-        <v>150</v>
-      </c>
-      <c r="J24" s="80"/>
-      <c r="K24" s="55" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="46">
-        <v>1</v>
-      </c>
-      <c r="B25" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="80" t="s">
-        <v>158</v>
-      </c>
-      <c r="E25" s="78" t="s">
+      <c r="G28" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="79"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="L28" s="27"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="78" t="s">
+      <c r="F29" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="80" t="s">
-        <v>182</v>
-      </c>
-      <c r="H25" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="57" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="E26" s="78" t="s">
+      <c r="G29" s="78"/>
+      <c r="H29" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="78"/>
+      <c r="K29" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="L29" s="27"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="117" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="F26" s="78" t="s">
+      <c r="F30" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="G26" s="79"/>
-      <c r="H26" s="81" t="s">
+      <c r="G30" s="78"/>
+      <c r="H30" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="81" t="s">
+      <c r="I30" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="J26" s="80"/>
-      <c r="K26" s="57" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="50">
-        <v>1</v>
-      </c>
-      <c r="B27" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="81" t="s">
-        <v>205</v>
-      </c>
-      <c r="E27" s="78" t="s">
+      <c r="J30" s="78"/>
+      <c r="K30" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="27"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="F27" s="78" t="s">
+      <c r="F31" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="G27" s="79" t="s">
-        <v>159</v>
-      </c>
-      <c r="H27" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="80"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="L27" s="27"/>
-    </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="50">
-        <v>1</v>
-      </c>
-      <c r="B28" s="96" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="E28" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="F28" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="G28" s="79" t="s">
-        <v>159</v>
-      </c>
-      <c r="H28" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="80"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="L28" s="27"/>
-    </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="64" t="s">
+      <c r="G31" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="78"/>
+      <c r="K31" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="L31" s="27"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84" t="s">
+      <c r="C32" s="83"/>
+      <c r="D32" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="F29" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="88"/>
-      <c r="K29" s="47" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="89"/>
-      <c r="D30" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="F30" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="G30" s="88"/>
-      <c r="H30" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="J30" s="90"/>
-      <c r="K30" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C31" s="89"/>
-      <c r="D31" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="F31" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="H31" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="89"/>
-      <c r="D32" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="85" t="s">
-        <v>179</v>
+      <c r="E32" s="84" t="s">
+        <v>213</v>
       </c>
       <c r="F32" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="86"/>
+      <c r="H32" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="87"/>
+      <c r="K32" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="88"/>
+      <c r="D33" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="87"/>
+      <c r="H33" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="89"/>
+      <c r="K33" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="48">
+        <v>1</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="88"/>
+      <c r="D34" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="H32" s="90" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="90" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="F33" s="86" t="s">
+      <c r="E34" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="G33" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H33" s="90" t="s">
+      <c r="G34" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="90" t="s">
+      <c r="I34" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="41"/>
-      <c r="K33" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="F34" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H34" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="54" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="26"/>
+      <c r="K34" s="43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="48">
         <v>1</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="93"/>
+        <v>209</v>
+      </c>
+      <c r="C35" s="88"/>
       <c r="D35" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="E35" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" s="86" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" s="84" t="s">
         <v>165</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H35" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" s="94" t="s">
-        <v>48</v>
+        <v>181</v>
+      </c>
+      <c r="H35" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="89" t="s">
+        <v>14</v>
       </c>
       <c r="J35" s="26"/>
-      <c r="K35" s="57" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="48">
         <v>1</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="C36" s="89"/>
-      <c r="D36" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="E36" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" s="86" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="88"/>
+      <c r="D36" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="85" t="s">
         <v>165</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H36" s="94" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="94" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="88"/>
-      <c r="K36" s="52" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="E37" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="F37" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="41"/>
+      <c r="K36" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="49">
+        <v>1</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="90"/>
+      <c r="D37" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" s="85" t="s">
         <v>165</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H37" s="94" t="s">
-        <v>150</v>
-      </c>
-      <c r="I37" s="94" t="s">
-        <v>150</v>
-      </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="55" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="H37" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="91"/>
+      <c r="K37" s="53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="48">
         <v>1</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="89" t="s">
-        <v>142</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C38" s="92"/>
       <c r="D38" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="F38" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="85" t="s">
         <v>165</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="95"/>
-      <c r="K38" s="45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="H38" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="26"/>
+      <c r="K38" s="56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="48">
         <v>1</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="89" t="s">
-        <v>142</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C39" s="88"/>
       <c r="D39" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="F39" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="85" t="s">
         <v>165</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H39" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H39" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="26" t="s">
+      <c r="I39" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="J39" s="95"/>
-      <c r="K39" s="36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
-        <v>193</v>
+      <c r="J39" s="87"/>
+      <c r="K39" s="51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="49">
+        <v>1</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="89" t="s">
-        <v>142</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C40" s="88"/>
       <c r="D40" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="F40" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="85" t="s">
         <v>165</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H40" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="95"/>
-      <c r="K40" s="36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="H40" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="I40" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="J40" s="26"/>
+      <c r="K40" s="54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="48">
         <v>1</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="88" t="s">
         <v>142</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="F41" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="85" t="s">
         <v>165</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H41" s="26" t="s">
         <v>14</v>
@@ -2960,32 +2943,32 @@
       <c r="I41" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J41" s="95"/>
-      <c r="K41" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="94"/>
+      <c r="K41" s="45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="48">
         <v>1</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="88" t="s">
         <v>142</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="F42" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="85" t="s">
         <v>165</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H42" s="26" t="s">
         <v>14</v>
@@ -2993,519 +2976,551 @@
       <c r="I42" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="95"/>
+      <c r="J42" s="94"/>
       <c r="K42" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="48">
         <v>1</v>
       </c>
       <c r="B43" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="94"/>
+      <c r="K43" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="48">
+        <v>1</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="94"/>
+      <c r="K44" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="48">
+        <v>1</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="94"/>
+      <c r="K45" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="48">
+        <v>1</v>
+      </c>
+      <c r="B46" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C46" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D46" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="F43" s="86" t="s">
+      <c r="E46" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="G43" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H43" s="26" t="s">
+      <c r="G46" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H46" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="26" t="s">
+      <c r="I46" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="J43" s="88"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="28" t="s">
+      <c r="J46" s="87"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="48">
+        <v>1</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="88"/>
+      <c r="D47" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="87"/>
+      <c r="K47" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>1</v>
+      </c>
+      <c r="B48" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89" t="s">
+      <c r="C48" s="71"/>
+      <c r="D48" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="F44" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H44" s="26" t="s">
+      <c r="E48" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G48" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="H48" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="94" t="s">
+      <c r="I48" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="88"/>
-      <c r="K44" s="45" t="s">
+      <c r="J48" s="87"/>
+      <c r="K48" s="45" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="F45" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H45" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" s="88"/>
-      <c r="K45" s="25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="72"/>
-      <c r="D46" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="73" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="46">
+        <v>1</v>
+      </c>
+      <c r="B49" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="71"/>
+      <c r="D49" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="F46" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="G46" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="H46" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" s="88"/>
-      <c r="K46" s="45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
-      <c r="B47" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="73" t="s">
+      <c r="F49" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G49" s="73"/>
+      <c r="H49" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="73"/>
+      <c r="K49" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="46">
+        <v>1</v>
+      </c>
+      <c r="B50" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="71"/>
+      <c r="D50" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="F47" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="G47" s="74"/>
-      <c r="H47" s="75" t="s">
+      <c r="F50" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G50" s="73"/>
+      <c r="H50" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="75" t="s">
+      <c r="I50" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="J47" s="74"/>
-      <c r="K47" s="43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="75" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="F48" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="G48" s="74"/>
-      <c r="H48" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="74"/>
-      <c r="K48" s="43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="72"/>
-      <c r="D49" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="F49" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="G49" s="74"/>
-      <c r="H49" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="74"/>
-      <c r="K49" s="45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="E50" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="F50" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="G50" s="74"/>
-      <c r="H50" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="I50" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="J50" s="74"/>
+      <c r="J50" s="73"/>
       <c r="K50" s="43" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="98" t="s">
-        <v>193</v>
-      </c>
-      <c r="B51" s="71" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>2</v>
+      </c>
+      <c r="B51" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="71"/>
+      <c r="D51" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G51" s="73"/>
+      <c r="H51" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="73"/>
+      <c r="K51" s="45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="46">
+        <v>1</v>
+      </c>
+      <c r="B52" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="71"/>
+      <c r="D52" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G52" s="73"/>
+      <c r="H52" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="J52" s="73"/>
+      <c r="K52" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="96">
+        <v>1</v>
+      </c>
+      <c r="B53" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="75" t="s">
+      <c r="C53" s="71"/>
+      <c r="D53" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="E51" s="73" t="s">
+      <c r="E53" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="G51" s="74" t="s">
+      <c r="F53" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G53" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="H51" s="75" t="s">
-        <v>199</v>
-      </c>
-      <c r="I51" s="75" t="s">
-        <v>199</v>
-      </c>
-      <c r="J51" s="74"/>
-      <c r="K51" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="98" t="s">
-        <v>193</v>
-      </c>
-      <c r="B52" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="F52" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="G52" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="H52" s="75" t="s">
-        <v>199</v>
-      </c>
-      <c r="I52" s="75" t="s">
-        <v>199</v>
-      </c>
-      <c r="J52" s="74"/>
-      <c r="K52" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>1</v>
-      </c>
-      <c r="B53" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="E53" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="F53" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="G53" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="H53" s="75" t="s">
-        <v>199</v>
-      </c>
-      <c r="I53" s="75" t="s">
-        <v>199</v>
-      </c>
-      <c r="J53" s="74"/>
+      <c r="H53" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="I53" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="J53" s="73"/>
       <c r="K53" s="36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="102" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="101"/>
-      <c r="B54" s="76" t="s">
+    <row r="54" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="96">
+        <v>1</v>
+      </c>
+      <c r="B54" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="71"/>
+      <c r="D54" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G54" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="H54" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="I54" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="J54" s="73"/>
+      <c r="K54" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>2</v>
+      </c>
+      <c r="B55" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="71"/>
+      <c r="D55" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="F55" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G55" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="H55" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="I55" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="J55" s="73"/>
+      <c r="K55" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="99">
+        <v>1</v>
+      </c>
+      <c r="B56" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="77"/>
-      <c r="D54" s="80" t="s">
+      <c r="C56" s="76"/>
+      <c r="D56" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="78" t="s">
+      <c r="E56" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="F56" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="F54" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="G54" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="H54" s="80" t="s">
+      <c r="G56" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="H56" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="80" t="s">
+      <c r="I56" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="79"/>
-      <c r="K54" s="80" t="s">
+      <c r="J56" s="78"/>
+      <c r="K56" s="79" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="102" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="101"/>
-      <c r="B55" s="76" t="s">
+    <row r="57" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="99">
+        <v>1</v>
+      </c>
+      <c r="B57" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="77"/>
-      <c r="D55" s="80" t="s">
+      <c r="C57" s="76"/>
+      <c r="D57" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="F57" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="G57" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="H57" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="78"/>
+      <c r="K57" s="79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="99">
+        <v>1</v>
+      </c>
+      <c r="B58" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="76"/>
+      <c r="D58" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="E58" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="F58" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="G58" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="H58" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="I58" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="J58" s="78"/>
+      <c r="K58" s="79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="99">
+        <v>1</v>
+      </c>
+      <c r="B59" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="E59" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="F59" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="G59" s="78"/>
+      <c r="H59" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="78"/>
+      <c r="K59" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="E55" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="F55" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="G55" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="H55" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="J55" s="79"/>
-      <c r="K55" s="80" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="102" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="101"/>
-      <c r="B56" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="77"/>
-      <c r="D56" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="E56" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="F56" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="G56" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="H56" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="I56" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="J56" s="79"/>
-      <c r="K56" s="80" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="102" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="101"/>
-      <c r="B57" s="76" t="s">
-        <v>140</v>
-      </c>
-      <c r="C57" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="D57" s="80" t="s">
-        <v>200</v>
-      </c>
-      <c r="E57" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="F57" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="G57" s="79"/>
-      <c r="H57" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" s="79"/>
-      <c r="K57" s="80" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="F58" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="G58" s="9"/>
-      <c r="H58" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J58" s="18"/>
-      <c r="K58" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="F59" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J59" s="18"/>
-      <c r="K59" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="5"/>
       <c r="B60" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="59" t="s">
         <v>146</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E60" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F60" s="65" t="s">
+      <c r="F60" s="64" t="s">
         <v>168</v>
       </c>
       <c r="G60" s="9"/>
@@ -3520,20 +3535,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61" s="23" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" s="5"/>
+      <c r="B61" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="65" t="s">
+      <c r="D61" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F61" s="65" t="s">
+      <c r="F61" s="64" t="s">
         <v>168</v>
       </c>
       <c r="G61" s="9"/>
@@ -3548,20 +3564,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="23" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" s="5"/>
+      <c r="B62" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" s="65" t="s">
+      <c r="D62" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F62" s="65" t="s">
+      <c r="F62" s="64" t="s">
         <v>168</v>
       </c>
       <c r="G62" s="9"/>
@@ -3576,20 +3593,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B63" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C63" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F63" s="65" t="s">
+      <c r="F63" s="64" t="s">
         <v>168</v>
       </c>
       <c r="G63" s="9"/>
@@ -3604,20 +3621,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B64" s="13" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="C64" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F64" s="65" t="s">
+      <c r="F64" s="64" t="s">
         <v>168</v>
       </c>
       <c r="G64" s="9"/>
@@ -3632,20 +3649,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B65" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E65" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F65" s="65" t="s">
+      <c r="F65" s="64" t="s">
         <v>168</v>
       </c>
       <c r="G65" s="9"/>
@@ -3660,20 +3677,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="35" t="s">
-        <v>56</v>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B66" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C66" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F66" s="65" t="s">
+      <c r="F66" s="64" t="s">
         <v>168</v>
       </c>
       <c r="G66" s="9"/>
@@ -3688,20 +3705,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B67" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F67" s="65" t="s">
+      <c r="F67" s="64" t="s">
         <v>168</v>
       </c>
       <c r="G67" s="9"/>
@@ -3716,76 +3733,76 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E68" s="65" t="s">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B68" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F68" s="65" t="s">
+      <c r="F68" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="G68" s="11"/>
-      <c r="H68" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J68" s="38"/>
-      <c r="K68" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E69" s="65" t="s">
+      <c r="G68" s="9"/>
+      <c r="H68" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" s="18"/>
+      <c r="K68" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B69" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F69" s="65" t="s">
+      <c r="F69" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="G69" s="11"/>
-      <c r="H69" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J69" s="38"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" s="18"/>
       <c r="K69" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="60" t="s">
         <v>144</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E70" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F70" s="65" t="s">
+      <c r="F70" s="64" t="s">
         <v>168</v>
       </c>
       <c r="G70" s="11"/>
@@ -3796,24 +3813,24 @@
         <v>13</v>
       </c>
       <c r="J70" s="38"/>
-      <c r="K70" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C71" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="60" t="s">
         <v>143</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E71" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F71" s="65" t="s">
+      <c r="F71" s="64" t="s">
         <v>168</v>
       </c>
       <c r="G71" s="11"/>
@@ -3828,20 +3845,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="60" t="s">
         <v>144</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E72" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F72" s="65" t="s">
+      <c r="F72" s="64" t="s">
         <v>168</v>
       </c>
       <c r="G72" s="11"/>
@@ -3852,100 +3869,104 @@
         <v>13</v>
       </c>
       <c r="J72" s="38"/>
-      <c r="K72" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="61"/>
+        <v>59</v>
+      </c>
+      <c r="C73" s="60" t="s">
+        <v>143</v>
+      </c>
       <c r="D73" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F73" s="65" t="s">
+      <c r="F73" s="64" t="s">
         <v>168</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J73" s="18"/>
-      <c r="K73" s="37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="J73" s="38"/>
+      <c r="K73" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C74" s="61"/>
+        <v>62</v>
+      </c>
+      <c r="C74" s="60" t="s">
+        <v>144</v>
+      </c>
       <c r="D74" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E74" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F74" s="65" t="s">
+      <c r="F74" s="64" t="s">
         <v>168</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J74" s="18"/>
-      <c r="K74" s="37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="J74" s="38"/>
+      <c r="K74" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="61"/>
+        <v>63</v>
+      </c>
+      <c r="C75" s="60"/>
       <c r="D75" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E75" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F75" s="65" t="s">
+      <c r="F75" s="64" t="s">
         <v>168</v>
       </c>
       <c r="G75" s="11"/>
       <c r="H75" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="J75" s="18"/>
       <c r="K75" s="37" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C76" s="61"/>
-      <c r="D76" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E76" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="60"/>
+      <c r="D76" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F76" s="65" t="s">
+      <c r="F76" s="64" t="s">
         <v>168</v>
       </c>
       <c r="G76" s="11"/>
@@ -3960,87 +3981,132 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="24" t="s">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B77" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="60"/>
+      <c r="D77" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="F77" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="G77" s="11"/>
+      <c r="H77" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J77" s="18"/>
+      <c r="K77" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B78" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="60"/>
+      <c r="D78" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="G78" s="11"/>
+      <c r="H78" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J78" s="18"/>
+      <c r="K78" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B79" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C77" s="23"/>
-      <c r="D77" s="20" t="s">
+      <c r="C79" s="23"/>
+      <c r="D79" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E77" s="65" t="s">
+      <c r="E79" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="F77" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="G77" s="11"/>
-      <c r="H77" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="I77" s="16"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E78" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="F78" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="G78" s="11"/>
-      <c r="H78" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="I78" s="16"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E79" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="F79" s="65" t="s">
+      <c r="F79" s="64" t="s">
         <v>168</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I79" s="16"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B80" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E80" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="F80" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="G80" s="11"/>
+      <c r="H80" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I80" s="16"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B81" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="23"/>
+      <c r="D81" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="F81" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="G81" s="11"/>
+      <c r="H81" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="I79" s="34"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="29" t="s">
+      <c r="I81" s="34"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="29" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K79" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="LoggingLayer Main"/>
-        <filter val="LoggingLayer Planes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A5:K81"/>
   <mergeCells count="8">
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B8:B9"/>

--- a/data_input/analytics/OLAP MultiBOM Flame GPU.xlsx
+++ b/data_input/analytics/OLAP MultiBOM Flame GPU.xlsx
@@ -10,7 +10,7 @@
     <sheet name="OLAP MultiBOM" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$K$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$K$82</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="217">
   <si>
     <t>Эксплуатация</t>
   </si>
@@ -804,6 +804,15 @@
   <si>
     <t>Property</t>
   </si>
+  <si>
+    <t>active_trigger</t>
+  </si>
+  <si>
+    <t>Дата подъема в Эксплутации из Неактивно (железный ряд) для постпроцессинга по планерам</t>
+  </si>
+  <si>
+    <t>Дата подъема из Неактивно</t>
+  </si>
 </sst>
 </file>
 
@@ -812,12 +821,20 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1155,346 +1172,349 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="41" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1804,11 +1824,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1843,18 +1861,18 @@
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="103" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
@@ -1936,19 +1954,19 @@
       <c r="D7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="111" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="109" t="s">
+      <c r="F7" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="106" t="s">
+      <c r="G7" s="108" t="s">
         <v>181</v>
       </c>
-      <c r="H7" s="111" t="s">
+      <c r="H7" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="113" t="s">
+      <c r="I7" s="115" t="s">
         <v>150</v>
       </c>
       <c r="J7" s="62" t="s">
@@ -1962,22 +1980,22 @@
       <c r="A8" s="49">
         <v>2</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="104" t="s">
         <v>114</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="114"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="116"/>
       <c r="J8" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="104" t="s">
+      <c r="K8" s="106" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1985,20 +2003,20 @@
       <c r="A9" s="49">
         <v>2</v>
       </c>
-      <c r="B9" s="103"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="114"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="116"/>
       <c r="J9" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="K9" s="105"/>
+      <c r="K9" s="107"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="49">
@@ -2011,11 +2029,11 @@
       <c r="D10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="114"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="116"/>
       <c r="J10" s="62" t="s">
         <v>153</v>
       </c>
@@ -2496,7 +2514,7 @@
     </row>
     <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="49"/>
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="102" t="s">
         <v>173</v>
       </c>
       <c r="C27" s="80" t="s">
@@ -2526,7 +2544,7 @@
     </row>
     <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="49"/>
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="102" t="s">
         <v>174</v>
       </c>
       <c r="C28" s="80" t="s">
@@ -2556,7 +2574,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="49"/>
-      <c r="B29" s="117" t="s">
+      <c r="B29" s="102" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="80"/>
@@ -2584,7 +2602,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="49"/>
-      <c r="B30" s="117" t="s">
+      <c r="B30" s="102" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="80"/>
@@ -2612,7 +2630,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="49"/>
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="102" t="s">
         <v>69</v>
       </c>
       <c r="C31" s="80"/>
@@ -2641,92 +2659,91 @@
       <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="116" t="s">
+      <c r="A32" s="49"/>
+      <c r="B32" s="102" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="78"/>
+      <c r="K32" s="118" t="s">
+        <v>215</v>
+      </c>
+      <c r="L32" s="27"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="101" t="s">
         <v>212</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B33" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83" t="s">
+      <c r="C33" s="83"/>
+      <c r="D33" s="83" t="s">
         <v>30</v>
-      </c>
-      <c r="E32" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="F32" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="G32" s="86"/>
-      <c r="H32" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="87"/>
-      <c r="K32" s="47" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="E33" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="F33" s="84" t="s">
+      <c r="F33" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="G33" s="87"/>
-      <c r="H33" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="J33" s="89"/>
-      <c r="K33" s="29" t="s">
-        <v>103</v>
+      <c r="G33" s="86"/>
+      <c r="H33" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="87"/>
+      <c r="K33" s="47" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="48">
-        <v>1</v>
+      <c r="A34" s="48" t="s">
+        <v>212</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="C34" s="88"/>
       <c r="D34" s="26" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="E34" s="84" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="F34" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="H34" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="43" t="s">
-        <v>125</v>
+      <c r="G34" s="87"/>
+      <c r="H34" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="89"/>
+      <c r="K34" s="29" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -2734,11 +2751,11 @@
         <v>1</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C35" s="88"/>
       <c r="D35" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E35" s="84" t="s">
         <v>178</v>
@@ -2747,17 +2764,17 @@
         <v>165</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="H35" s="89" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I35" s="89" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J35" s="26"/>
-      <c r="K35" s="7" t="s">
-        <v>122</v>
+      <c r="K35" s="43" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -2765,42 +2782,42 @@
         <v>1</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C36" s="88"/>
-      <c r="D36" s="41" t="s">
-        <v>184</v>
+      <c r="D36" s="26" t="s">
+        <v>183</v>
       </c>
       <c r="E36" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="F36" s="85" t="s">
+      <c r="F36" s="84" t="s">
         <v>165</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>181</v>
       </c>
       <c r="H36" s="89" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I36" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="41"/>
-      <c r="K36" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="49">
+        <v>14</v>
+      </c>
+      <c r="J36" s="26"/>
+      <c r="K36" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="48">
         <v>1</v>
       </c>
-      <c r="B37" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="90"/>
+      <c r="B37" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="88"/>
       <c r="D37" s="41" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E37" s="84" t="s">
         <v>178</v>
@@ -2812,26 +2829,26 @@
         <v>181</v>
       </c>
       <c r="H37" s="89" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I37" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="J37" s="91"/>
-      <c r="K37" s="53" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="48">
+        <v>11</v>
+      </c>
+      <c r="J37" s="41"/>
+      <c r="K37" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="49">
         <v>1</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="92"/>
-      <c r="D38" s="26" t="s">
-        <v>189</v>
+      <c r="B38" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="90"/>
+      <c r="D38" s="41" t="s">
+        <v>121</v>
       </c>
       <c r="E38" s="84" t="s">
         <v>178</v>
@@ -2842,15 +2859,15 @@
       <c r="G38" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="H38" s="93" t="s">
+      <c r="H38" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="I38" s="93" t="s">
+      <c r="I38" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="56" t="s">
-        <v>203</v>
+      <c r="J38" s="91"/>
+      <c r="K38" s="53" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -2858,11 +2875,11 @@
         <v>1</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39" s="88"/>
+        <v>3</v>
+      </c>
+      <c r="C39" s="92"/>
       <c r="D39" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E39" s="84" t="s">
         <v>178</v>
@@ -2874,26 +2891,26 @@
         <v>181</v>
       </c>
       <c r="H39" s="93" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="I39" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="87"/>
-      <c r="K39" s="51" t="s">
-        <v>129</v>
+        <v>48</v>
+      </c>
+      <c r="J39" s="26"/>
+      <c r="K39" s="56" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="49">
+      <c r="A40" s="48">
         <v>1</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>2</v>
+        <v>206</v>
       </c>
       <c r="C40" s="88"/>
       <c r="D40" s="26" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E40" s="84" t="s">
         <v>178</v>
@@ -2905,28 +2922,26 @@
         <v>181</v>
       </c>
       <c r="H40" s="93" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="I40" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="J40" s="26"/>
-      <c r="K40" s="54" t="s">
-        <v>139</v>
+        <v>14</v>
+      </c>
+      <c r="J40" s="87"/>
+      <c r="K40" s="51" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="48">
+      <c r="A41" s="49">
         <v>1</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="88" t="s">
-        <v>142</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C41" s="88"/>
       <c r="D41" s="26" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
       <c r="E41" s="84" t="s">
         <v>178</v>
@@ -2937,15 +2952,15 @@
       <c r="G41" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="H41" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="94"/>
-      <c r="K41" s="45" t="s">
-        <v>117</v>
+      <c r="H41" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="I41" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="J41" s="26"/>
+      <c r="K41" s="54" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -2953,13 +2968,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="88" t="s">
         <v>142</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" s="84" t="s">
         <v>178</v>
@@ -2977,7 +2992,7 @@
         <v>14</v>
       </c>
       <c r="J42" s="94"/>
-      <c r="K42" s="36" t="s">
+      <c r="K42" s="45" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2986,13 +3001,13 @@
         <v>1</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" s="88" t="s">
         <v>142</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E43" s="84" t="s">
         <v>178</v>
@@ -3019,13 +3034,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="88" t="s">
         <v>142</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E44" s="84" t="s">
         <v>178</v>
@@ -3044,7 +3059,7 @@
       </c>
       <c r="J44" s="94"/>
       <c r="K44" s="36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -3052,13 +3067,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="88" t="s">
         <v>142</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" s="84" t="s">
         <v>178</v>
@@ -3085,13 +3100,13 @@
         <v>1</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C46" s="88" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46" s="84" t="s">
         <v>178</v>
@@ -3103,24 +3118,28 @@
         <v>181</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J46" s="87"/>
-      <c r="K46" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="J46" s="94"/>
+      <c r="K46" s="36" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="48">
         <v>1</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="88"/>
+        <v>17</v>
+      </c>
+      <c r="C47" s="88" t="s">
+        <v>145</v>
+      </c>
       <c r="D47" s="26" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E47" s="84" t="s">
         <v>178</v>
@@ -3132,57 +3151,55 @@
         <v>181</v>
       </c>
       <c r="H47" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="87"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="48">
+        <v>1</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="88"/>
+      <c r="D48" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H48" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="26" t="s">
+      <c r="I48" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="87"/>
-      <c r="K47" s="25" t="s">
+      <c r="J48" s="87"/>
+      <c r="K48" s="25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="5">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
         <v>1</v>
       </c>
-      <c r="B48" s="70" t="s">
+      <c r="B49" s="70" t="s">
         <v>20</v>
-      </c>
-      <c r="C48" s="71"/>
-      <c r="D48" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="F48" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="G48" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="H48" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="87"/>
-      <c r="K48" s="45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="46">
-        <v>1</v>
-      </c>
-      <c r="B49" s="70" t="s">
-        <v>25</v>
       </c>
       <c r="C49" s="71"/>
       <c r="D49" s="74" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="E49" s="72" t="s">
         <v>175</v>
@@ -3190,16 +3207,18 @@
       <c r="F49" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="G49" s="73"/>
+      <c r="G49" s="73" t="s">
+        <v>181</v>
+      </c>
       <c r="H49" s="74" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I49" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="73"/>
-      <c r="K49" s="43" t="s">
-        <v>124</v>
+        <v>16</v>
+      </c>
+      <c r="J49" s="87"/>
+      <c r="K49" s="45" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -3207,11 +3226,11 @@
         <v>1</v>
       </c>
       <c r="B50" s="70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C50" s="71"/>
       <c r="D50" s="74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E50" s="72" t="s">
         <v>175</v>
@@ -3232,15 +3251,15 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="5">
-        <v>2</v>
+      <c r="A51" s="46">
+        <v>1</v>
       </c>
       <c r="B51" s="70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C51" s="71"/>
       <c r="D51" s="74" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="E51" s="72" t="s">
         <v>175</v>
@@ -3256,20 +3275,20 @@
         <v>11</v>
       </c>
       <c r="J51" s="73"/>
-      <c r="K51" s="45" t="s">
-        <v>126</v>
+      <c r="K51" s="43" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="46">
-        <v>1</v>
+      <c r="A52" s="5">
+        <v>2</v>
       </c>
       <c r="B52" s="70" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C52" s="71"/>
       <c r="D52" s="74" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="E52" s="72" t="s">
         <v>175</v>
@@ -3279,26 +3298,26 @@
       </c>
       <c r="G52" s="73"/>
       <c r="H52" s="74" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I52" s="74" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="J52" s="73"/>
-      <c r="K52" s="43" t="s">
-        <v>124</v>
+      <c r="K52" s="45" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="96">
+      <c r="A53" s="46">
         <v>1</v>
       </c>
       <c r="B53" s="70" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C53" s="71"/>
       <c r="D53" s="74" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="E53" s="72" t="s">
         <v>175</v>
@@ -3306,30 +3325,28 @@
       <c r="F53" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="G53" s="73" t="s">
-        <v>159</v>
-      </c>
+      <c r="G53" s="73"/>
       <c r="H53" s="74" t="s">
-        <v>195</v>
+        <v>48</v>
       </c>
       <c r="I53" s="74" t="s">
-        <v>195</v>
+        <v>48</v>
       </c>
       <c r="J53" s="73"/>
-      <c r="K53" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K53" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="96">
         <v>1</v>
       </c>
       <c r="B54" s="70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="71"/>
       <c r="D54" s="74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E54" s="72" t="s">
         <v>175</v>
@@ -3351,16 +3368,16 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="5">
-        <v>2</v>
+    <row r="55" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="96">
+        <v>1</v>
       </c>
       <c r="B55" s="70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" s="71"/>
       <c r="D55" s="74" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="E55" s="72" t="s">
         <v>175</v>
@@ -3382,35 +3399,35 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="99">
-        <v>1</v>
-      </c>
-      <c r="B56" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="76"/>
-      <c r="D56" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="F56" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="G56" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="H56" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56" s="78"/>
-      <c r="K56" s="79" t="s">
-        <v>128</v>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>2</v>
+      </c>
+      <c r="B56" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="71"/>
+      <c r="D56" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="F56" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G56" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="H56" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="I56" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="J56" s="73"/>
+      <c r="K56" s="36" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
@@ -3418,11 +3435,11 @@
         <v>1</v>
       </c>
       <c r="B57" s="75" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C57" s="76"/>
       <c r="D57" s="79" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="E57" s="77" t="s">
         <v>188</v>
@@ -3437,11 +3454,11 @@
         <v>11</v>
       </c>
       <c r="I57" s="79" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J57" s="78"/>
       <c r="K57" s="79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
@@ -3449,11 +3466,11 @@
         <v>1</v>
       </c>
       <c r="B58" s="75" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C58" s="76"/>
       <c r="D58" s="79" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E58" s="77" t="s">
         <v>188</v>
@@ -3465,14 +3482,14 @@
         <v>181</v>
       </c>
       <c r="H58" s="79" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="I58" s="79" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="J58" s="78"/>
       <c r="K58" s="79" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
@@ -3480,13 +3497,11 @@
         <v>1</v>
       </c>
       <c r="B59" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" s="76" t="s">
-        <v>142</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C59" s="76"/>
       <c r="D59" s="79" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E59" s="77" t="s">
         <v>188</v>
@@ -3494,57 +3509,61 @@
       <c r="F59" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="G59" s="78"/>
+      <c r="G59" s="78" t="s">
+        <v>181</v>
+      </c>
       <c r="H59" s="79" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="I59" s="79" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="J59" s="78"/>
       <c r="K59" s="79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="99">
+        <v>1</v>
+      </c>
+      <c r="B60" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="F60" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="G60" s="78"/>
+      <c r="H60" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" s="78"/>
+      <c r="K60" s="79" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" s="5"/>
-      <c r="B60" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="F60" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J60" s="18"/>
-      <c r="K60" s="21" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="5"/>
       <c r="B61" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C61" s="59" t="s">
         <v>146</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E61" s="64" t="s">
         <v>164</v>
@@ -3567,13 +3586,13 @@
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
       <c r="B62" s="12" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C62" s="59" t="s">
         <v>146</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="E62" s="64" t="s">
         <v>164</v>
@@ -3594,14 +3613,15 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B63" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="23" t="s">
+      <c r="A63" s="5"/>
+      <c r="B63" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>32</v>
+      <c r="D63" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E63" s="64" t="s">
         <v>164</v>
@@ -3623,13 +3643,13 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B64" s="13" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C64" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E64" s="64" t="s">
         <v>164</v>
@@ -3651,13 +3671,13 @@
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B65" s="13" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E65" s="64" t="s">
         <v>164</v>
@@ -3679,13 +3699,13 @@
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B66" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C66" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E66" s="64" t="s">
         <v>164</v>
@@ -3707,13 +3727,13 @@
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B67" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E67" s="64" t="s">
         <v>164</v>
@@ -3734,14 +3754,14 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B68" s="35" t="s">
-        <v>56</v>
+      <c r="B68" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E68" s="64" t="s">
         <v>164</v>
@@ -3762,14 +3782,14 @@
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B69" s="13" t="s">
-        <v>57</v>
+      <c r="B69" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="C69" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E69" s="64" t="s">
         <v>164</v>
@@ -3790,14 +3810,14 @@
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B70" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>39</v>
+      <c r="B70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E70" s="64" t="s">
         <v>164</v>
@@ -3805,27 +3825,27 @@
       <c r="F70" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="G70" s="11"/>
-      <c r="H70" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J70" s="38"/>
-      <c r="K70" s="22" t="s">
-        <v>72</v>
+      <c r="G70" s="9"/>
+      <c r="H70" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="18"/>
+      <c r="K70" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C71" s="60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E71" s="64" t="s">
         <v>164</v>
@@ -3841,19 +3861,19 @@
         <v>13</v>
       </c>
       <c r="J71" s="38"/>
-      <c r="K71" s="21" t="s">
-        <v>71</v>
+      <c r="K71" s="22" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C72" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E72" s="64" t="s">
         <v>164</v>
@@ -3875,13 +3895,13 @@
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C73" s="60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E73" s="64" t="s">
         <v>164</v>
@@ -3903,13 +3923,13 @@
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C74" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E74" s="64" t="s">
         <v>164</v>
@@ -3925,17 +3945,19 @@
         <v>13</v>
       </c>
       <c r="J74" s="38"/>
-      <c r="K74" s="32" t="s">
-        <v>109</v>
+      <c r="K74" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75" s="60"/>
+        <v>62</v>
+      </c>
+      <c r="C75" s="60" t="s">
+        <v>144</v>
+      </c>
       <c r="D75" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E75" s="64" t="s">
         <v>164</v>
@@ -3945,23 +3967,23 @@
       </c>
       <c r="G75" s="11"/>
       <c r="H75" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J75" s="18"/>
-      <c r="K75" s="37" t="s">
-        <v>118</v>
+        <v>13</v>
+      </c>
+      <c r="J75" s="38"/>
+      <c r="K75" s="32" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" s="60"/>
       <c r="D76" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E76" s="64" t="s">
         <v>164</v>
@@ -3971,10 +3993,10 @@
       </c>
       <c r="G76" s="11"/>
       <c r="H76" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="J76" s="18"/>
       <c r="K76" s="37" t="s">
@@ -3983,11 +4005,11 @@
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C77" s="60"/>
       <c r="D77" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E77" s="64" t="s">
         <v>164</v>
@@ -4009,11 +4031,11 @@
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78" s="60"/>
-      <c r="D78" s="17" t="s">
-        <v>47</v>
+      <c r="D78" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E78" s="64" t="s">
         <v>164</v>
@@ -4034,12 +4056,12 @@
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B79" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="20" t="s">
-        <v>75</v>
+      <c r="B79" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="60"/>
+      <c r="D79" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="E79" s="64" t="s">
         <v>164</v>
@@ -4048,22 +4070,24 @@
         <v>168</v>
       </c>
       <c r="G79" s="11"/>
-      <c r="H79" s="31" t="s">
+      <c r="H79" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I79" s="16"/>
+      <c r="I79" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="J79" s="18"/>
-      <c r="K79" s="7" t="s">
-        <v>106</v>
+      <c r="K79" s="37" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B80" s="24" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E80" s="64" t="s">
         <v>164</v>
@@ -4078,16 +4102,16 @@
       <c r="I80" s="16"/>
       <c r="J80" s="18"/>
       <c r="K80" s="7" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B81" s="33" t="s">
-        <v>107</v>
+      <c r="B81" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="C81" s="23"/>
-      <c r="D81" s="29" t="s">
-        <v>108</v>
+      <c r="D81" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="E81" s="64" t="s">
         <v>164</v>
@@ -4097,16 +4121,40 @@
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I81" s="16"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B82" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="23"/>
+      <c r="D82" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="F82" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="G82" s="11"/>
+      <c r="H82" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="I81" s="34"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="29" t="s">
+      <c r="I82" s="34"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="29" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K81"/>
+  <autoFilter ref="A5:K82"/>
   <mergeCells count="8">
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B8:B9"/>

--- a/data_input/analytics/OLAP MultiBOM Flame GPU.xlsx
+++ b/data_input/analytics/OLAP MultiBOM Flame GPU.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="9720" windowHeight="8020" tabRatio="587"/>
   </bookViews>
   <sheets>
     <sheet name="OLAP MultiBOM" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$K$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$K$83</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="220">
   <si>
     <t>Эксплуатация</t>
   </si>
@@ -813,6 +813,15 @@
   <si>
     <t>Дата подъема из Неактивно</t>
   </si>
+  <si>
+    <t>Возраст ВС</t>
+  </si>
+  <si>
+    <t>aircraft_age_years</t>
+  </si>
+  <si>
+    <t>Полных лет с момента производства</t>
+  </si>
 </sst>
 </file>
 
@@ -821,7 +830,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1085,6 +1094,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12.5"/>
+      <color rgb="FFD8DEE9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1175,7 +1191,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -1467,6 +1483,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1512,9 +1531,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1824,9 +1841,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:I28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1861,18 +1880,18 @@
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
@@ -1954,19 +1973,19 @@
       <c r="D7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="111" t="s">
+      <c r="F7" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="108" t="s">
+      <c r="G7" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="116" t="s">
         <v>150</v>
       </c>
       <c r="J7" s="62" t="s">
@@ -1980,22 +1999,22 @@
       <c r="A8" s="49">
         <v>2</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="105" t="s">
         <v>114</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="116"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="117"/>
       <c r="J8" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="106" t="s">
+      <c r="K8" s="107" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2003,20 +2022,20 @@
       <c r="A9" s="49">
         <v>2</v>
       </c>
-      <c r="B9" s="105"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="116"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="117"/>
       <c r="J9" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="K9" s="107"/>
+      <c r="K9" s="108"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="49">
@@ -2029,11 +2048,11 @@
       <c r="D10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="112"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="116"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="117"/>
       <c r="J10" s="62" t="s">
         <v>153</v>
       </c>
@@ -2533,9 +2552,11 @@
         <v>159</v>
       </c>
       <c r="H27" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="79"/>
+        <v>16</v>
+      </c>
+      <c r="I27" s="79" t="s">
+        <v>16</v>
+      </c>
       <c r="J27" s="78"/>
       <c r="K27" s="52" t="s">
         <v>132</v>
@@ -2563,9 +2584,11 @@
         <v>159</v>
       </c>
       <c r="H28" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="79"/>
+        <v>16</v>
+      </c>
+      <c r="I28" s="79" t="s">
+        <v>16</v>
+      </c>
       <c r="J28" s="78"/>
       <c r="K28" s="52" t="s">
         <v>131</v>
@@ -2683,7 +2706,7 @@
         <v>16</v>
       </c>
       <c r="J32" s="78"/>
-      <c r="K32" s="118" t="s">
+      <c r="K32" s="103" t="s">
         <v>215</v>
       </c>
       <c r="L32" s="27"/>
@@ -3190,47 +3213,45 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="5">
+    <row r="49" spans="1:11" ht="19.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="48"/>
+      <c r="B49" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="88"/>
+      <c r="D49" s="119" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J49" s="87"/>
+      <c r="K49" s="97" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
         <v>1</v>
       </c>
-      <c r="B49" s="70" t="s">
+      <c r="B50" s="70" t="s">
         <v>20</v>
-      </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="F49" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="G49" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="H49" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" s="87"/>
-      <c r="K49" s="45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="46">
-        <v>1</v>
-      </c>
-      <c r="B50" s="70" t="s">
-        <v>25</v>
       </c>
       <c r="C50" s="71"/>
       <c r="D50" s="74" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="E50" s="72" t="s">
         <v>175</v>
@@ -3238,16 +3259,18 @@
       <c r="F50" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="G50" s="73"/>
+      <c r="G50" s="73" t="s">
+        <v>181</v>
+      </c>
       <c r="H50" s="74" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I50" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" s="73"/>
-      <c r="K50" s="43" t="s">
-        <v>124</v>
+        <v>16</v>
+      </c>
+      <c r="J50" s="87"/>
+      <c r="K50" s="45" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -3255,11 +3278,11 @@
         <v>1</v>
       </c>
       <c r="B51" s="70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C51" s="71"/>
       <c r="D51" s="74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51" s="72" t="s">
         <v>175</v>
@@ -3280,15 +3303,15 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="5">
-        <v>2</v>
+      <c r="A52" s="46">
+        <v>1</v>
       </c>
       <c r="B52" s="70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C52" s="71"/>
       <c r="D52" s="74" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="E52" s="72" t="s">
         <v>175</v>
@@ -3304,20 +3327,20 @@
         <v>11</v>
       </c>
       <c r="J52" s="73"/>
-      <c r="K52" s="45" t="s">
-        <v>126</v>
+      <c r="K52" s="43" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="46">
-        <v>1</v>
+      <c r="A53" s="5">
+        <v>2</v>
       </c>
       <c r="B53" s="70" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C53" s="71"/>
       <c r="D53" s="74" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="E53" s="72" t="s">
         <v>175</v>
@@ -3327,26 +3350,26 @@
       </c>
       <c r="G53" s="73"/>
       <c r="H53" s="74" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I53" s="74" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="J53" s="73"/>
-      <c r="K53" s="43" t="s">
-        <v>124</v>
+      <c r="K53" s="45" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="96">
+      <c r="A54" s="46">
         <v>1</v>
       </c>
       <c r="B54" s="70" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C54" s="71"/>
       <c r="D54" s="74" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="E54" s="72" t="s">
         <v>175</v>
@@ -3354,30 +3377,28 @@
       <c r="F54" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="G54" s="73" t="s">
-        <v>159</v>
-      </c>
+      <c r="G54" s="73"/>
       <c r="H54" s="74" t="s">
-        <v>195</v>
+        <v>48</v>
       </c>
       <c r="I54" s="74" t="s">
-        <v>195</v>
+        <v>48</v>
       </c>
       <c r="J54" s="73"/>
-      <c r="K54" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K54" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="96">
         <v>1</v>
       </c>
       <c r="B55" s="70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" s="71"/>
       <c r="D55" s="74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E55" s="72" t="s">
         <v>175</v>
@@ -3399,16 +3420,16 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="5">
-        <v>2</v>
+    <row r="56" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="96">
+        <v>1</v>
       </c>
       <c r="B56" s="70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" s="71"/>
       <c r="D56" s="74" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="E56" s="72" t="s">
         <v>175</v>
@@ -3430,35 +3451,35 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="99">
-        <v>1</v>
-      </c>
-      <c r="B57" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="76"/>
-      <c r="D57" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="F57" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="G57" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="H57" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="78"/>
-      <c r="K57" s="79" t="s">
-        <v>128</v>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>2</v>
+      </c>
+      <c r="B57" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="71"/>
+      <c r="D57" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="F57" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G57" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="H57" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="I57" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="J57" s="73"/>
+      <c r="K57" s="36" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
@@ -3466,11 +3487,11 @@
         <v>1</v>
       </c>
       <c r="B58" s="75" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C58" s="76"/>
       <c r="D58" s="79" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="E58" s="77" t="s">
         <v>188</v>
@@ -3485,11 +3506,11 @@
         <v>11</v>
       </c>
       <c r="I58" s="79" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J58" s="78"/>
       <c r="K58" s="79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
@@ -3497,11 +3518,11 @@
         <v>1</v>
       </c>
       <c r="B59" s="75" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C59" s="76"/>
       <c r="D59" s="79" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E59" s="77" t="s">
         <v>188</v>
@@ -3513,14 +3534,14 @@
         <v>181</v>
       </c>
       <c r="H59" s="79" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="I59" s="79" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="J59" s="78"/>
       <c r="K59" s="79" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
@@ -3528,13 +3549,11 @@
         <v>1</v>
       </c>
       <c r="B60" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="C60" s="76" t="s">
-        <v>142</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C60" s="76"/>
       <c r="D60" s="79" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E60" s="77" t="s">
         <v>188</v>
@@ -3542,57 +3561,61 @@
       <c r="F60" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="G60" s="78"/>
+      <c r="G60" s="78" t="s">
+        <v>181</v>
+      </c>
       <c r="H60" s="79" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="I60" s="79" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="J60" s="78"/>
       <c r="K60" s="79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="99">
+        <v>1</v>
+      </c>
+      <c r="B61" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="G61" s="78"/>
+      <c r="H61" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" s="78"/>
+      <c r="K61" s="79" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" s="5"/>
-      <c r="B61" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E61" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="F61" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J61" s="18"/>
-      <c r="K61" s="21" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
       <c r="B62" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C62" s="59" t="s">
         <v>146</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E62" s="64" t="s">
         <v>164</v>
@@ -3615,13 +3638,13 @@
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
       <c r="B63" s="12" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C63" s="59" t="s">
         <v>146</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="E63" s="64" t="s">
         <v>164</v>
@@ -3642,14 +3665,15 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B64" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" s="23" t="s">
+      <c r="A64" s="5"/>
+      <c r="B64" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>32</v>
+      <c r="D64" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E64" s="64" t="s">
         <v>164</v>
@@ -3671,13 +3695,13 @@
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B65" s="13" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E65" s="64" t="s">
         <v>164</v>
@@ -3699,13 +3723,13 @@
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B66" s="13" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C66" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E66" s="64" t="s">
         <v>164</v>
@@ -3727,13 +3751,13 @@
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B67" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E67" s="64" t="s">
         <v>164</v>
@@ -3755,13 +3779,13 @@
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B68" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E68" s="64" t="s">
         <v>164</v>
@@ -3782,14 +3806,14 @@
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B69" s="35" t="s">
-        <v>56</v>
+      <c r="B69" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="C69" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E69" s="64" t="s">
         <v>164</v>
@@ -3810,14 +3834,14 @@
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B70" s="13" t="s">
-        <v>57</v>
+      <c r="B70" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="C70" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E70" s="64" t="s">
         <v>164</v>
@@ -3838,14 +3862,14 @@
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B71" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>39</v>
+      <c r="B71" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E71" s="64" t="s">
         <v>164</v>
@@ -3853,27 +3877,27 @@
       <c r="F71" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="G71" s="11"/>
-      <c r="H71" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J71" s="38"/>
-      <c r="K71" s="22" t="s">
-        <v>72</v>
+      <c r="G71" s="9"/>
+      <c r="H71" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71" s="18"/>
+      <c r="K71" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E72" s="64" t="s">
         <v>164</v>
@@ -3889,19 +3913,19 @@
         <v>13</v>
       </c>
       <c r="J72" s="38"/>
-      <c r="K72" s="21" t="s">
-        <v>71</v>
+      <c r="K72" s="22" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C73" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E73" s="64" t="s">
         <v>164</v>
@@ -3923,13 +3947,13 @@
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C74" s="60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E74" s="64" t="s">
         <v>164</v>
@@ -3951,13 +3975,13 @@
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C75" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E75" s="64" t="s">
         <v>164</v>
@@ -3973,17 +3997,19 @@
         <v>13</v>
       </c>
       <c r="J75" s="38"/>
-      <c r="K75" s="32" t="s">
-        <v>109</v>
+      <c r="K75" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76" s="60"/>
+        <v>62</v>
+      </c>
+      <c r="C76" s="60" t="s">
+        <v>144</v>
+      </c>
       <c r="D76" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E76" s="64" t="s">
         <v>164</v>
@@ -3993,23 +4019,23 @@
       </c>
       <c r="G76" s="11"/>
       <c r="H76" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J76" s="18"/>
-      <c r="K76" s="37" t="s">
-        <v>118</v>
+        <v>13</v>
+      </c>
+      <c r="J76" s="38"/>
+      <c r="K76" s="32" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C77" s="60"/>
       <c r="D77" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E77" s="64" t="s">
         <v>164</v>
@@ -4019,10 +4045,10 @@
       </c>
       <c r="G77" s="11"/>
       <c r="H77" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="J77" s="18"/>
       <c r="K77" s="37" t="s">
@@ -4031,11 +4057,11 @@
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C78" s="60"/>
       <c r="D78" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E78" s="64" t="s">
         <v>164</v>
@@ -4057,11 +4083,11 @@
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C79" s="60"/>
-      <c r="D79" s="17" t="s">
-        <v>47</v>
+      <c r="D79" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E79" s="64" t="s">
         <v>164</v>
@@ -4082,12 +4108,12 @@
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B80" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="20" t="s">
-        <v>75</v>
+      <c r="B80" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" s="60"/>
+      <c r="D80" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="E80" s="64" t="s">
         <v>164</v>
@@ -4096,22 +4122,24 @@
         <v>168</v>
       </c>
       <c r="G80" s="11"/>
-      <c r="H80" s="31" t="s">
+      <c r="H80" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I80" s="16"/>
+      <c r="I80" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="J80" s="18"/>
-      <c r="K80" s="7" t="s">
-        <v>106</v>
+      <c r="K80" s="37" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B81" s="24" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E81" s="64" t="s">
         <v>164</v>
@@ -4126,16 +4154,16 @@
       <c r="I81" s="16"/>
       <c r="J81" s="18"/>
       <c r="K81" s="7" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B82" s="33" t="s">
-        <v>107</v>
+      <c r="B82" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="C82" s="23"/>
-      <c r="D82" s="29" t="s">
-        <v>108</v>
+      <c r="D82" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="E82" s="64" t="s">
         <v>164</v>
@@ -4145,16 +4173,40 @@
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I82" s="16"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B83" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" s="23"/>
+      <c r="D83" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="G83" s="11"/>
+      <c r="H83" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="I82" s="34"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="29" t="s">
+      <c r="I83" s="34"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="29" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K82"/>
+  <autoFilter ref="A5:K83"/>
   <mergeCells count="8">
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B8:B9"/>

--- a/data_input/analytics/OLAP MultiBOM Flame GPU.xlsx
+++ b/data_input/analytics/OLAP MultiBOM Flame GPU.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF31620-1ACE-4ECE-900E-627E81600F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="9720" windowHeight="8020" tabRatio="587"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OLAP MultiBOM" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$K$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$K$84</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="223">
   <si>
     <t>Эксплуатация</t>
   </si>
@@ -605,22 +595,10 @@
     <t>bitmask</t>
   </si>
   <si>
-    <t>limits:0</t>
-  </si>
-  <si>
-    <t>limits:3</t>
-  </si>
-  <si>
     <t>common_restricted1</t>
   </si>
   <si>
     <t>common_restricted2</t>
-  </si>
-  <si>
-    <t>limits:1</t>
-  </si>
-  <si>
-    <t>limits:2</t>
   </si>
   <si>
     <t>daily_flight</t>
@@ -822,15 +800,36 @@
   <si>
     <t>Полных лет с момента производства</t>
   </si>
+  <si>
+    <t>Environment MacroProperty3</t>
+  </si>
+  <si>
+    <t>Multihot ограничения</t>
+  </si>
+  <si>
+    <t>restrictions_mask</t>
+  </si>
+  <si>
+    <t>restrictions_mask limits:0</t>
+  </si>
+  <si>
+    <t>restrictions_mask limits:1</t>
+  </si>
+  <si>
+    <t>restrictions_mask limits:2</t>
+  </si>
+  <si>
+    <t>restrictions_mask limits:3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1094,13 +1093,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12.5"/>
-      <color rgb="FFD8DEE9"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1240,10 +1232,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1272,7 +1264,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1294,7 +1286,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1372,10 +1364,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -1394,10 +1386,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1409,10 +1401,10 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1430,16 +1422,16 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1460,7 +1452,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1531,12 +1523,14 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1627,6 +1621,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1662,6 +1673,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1837,37 +1865,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:I28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="61" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.7265625" style="66" customWidth="1"/>
-    <col min="7" max="7" width="30.81640625" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.1796875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="163.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.54296875" style="1"/>
+    <col min="2" max="2" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.7109375" style="66" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="163.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="57"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="57"/>
       <c r="D2" s="8"/>
@@ -1878,10 +1906,10 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="104" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C3" s="104"/>
       <c r="D3" s="104"/>
@@ -1893,14 +1921,14 @@
       <c r="J3" s="104"/>
       <c r="K3" s="104"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="2"/>
       <c r="C4" s="57"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="14" t="s">
         <v>10</v>
@@ -1909,19 +1937,19 @@
         <v>141</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>148</v>
@@ -1933,22 +1961,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="48">
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="68" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E6" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="65" t="s">
         <v>162</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>166</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="44" t="s">
@@ -1959,10 +1987,10 @@
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="97" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
         <v>2</v>
       </c>
@@ -1974,13 +2002,13 @@
         <v>112</v>
       </c>
       <c r="E7" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="112" t="s">
-        <v>166</v>
-      </c>
       <c r="G7" s="109" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H7" s="114" t="s">
         <v>150</v>
@@ -1989,13 +2017,13 @@
         <v>150</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="K7" s="98" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>2</v>
       </c>
@@ -2004,7 +2032,7 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E8" s="113"/>
       <c r="F8" s="113"/>
@@ -2012,20 +2040,20 @@
       <c r="H8" s="115"/>
       <c r="I8" s="117"/>
       <c r="J8" s="62" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="K8" s="107" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="49">
         <v>2</v>
       </c>
       <c r="B9" s="106"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E9" s="113"/>
       <c r="F9" s="113"/>
@@ -2033,11 +2061,11 @@
       <c r="H9" s="115"/>
       <c r="I9" s="117"/>
       <c r="J9" s="62" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="K9" s="108"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="49">
         <v>2</v>
       </c>
@@ -2054,31 +2082,29 @@
       <c r="H10" s="115"/>
       <c r="I10" s="117"/>
       <c r="J10" s="62" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="K10" s="95" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="49">
-        <v>1</v>
-      </c>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="49"/>
       <c r="B11" s="12" t="s">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="E11" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="65" t="s">
-        <v>166</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H11" s="82" t="s">
         <v>48</v>
@@ -2086,85 +2112,85 @@
       <c r="I11" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="55" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="49"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="119"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="49">
+        <v>1</v>
+      </c>
       <c r="B12" s="12" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E12" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="F12" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="G12" s="30"/>
+      <c r="G12" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="H12" s="82" t="s">
         <v>48</v>
       </c>
       <c r="I12" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="42" t="s">
+      <c r="J12" s="30"/>
+      <c r="K12" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="49"/>
+      <c r="B13" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="42" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="49">
-        <v>1</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
         <v>1</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>142</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="65" t="s">
         <v>162</v>
-      </c>
-      <c r="F14" s="65" t="s">
-        <v>166</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="39" t="s">
@@ -2176,24 +2202,24 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="65" t="s">
         <v>162</v>
-      </c>
-      <c r="F15" s="65" t="s">
-        <v>166</v>
       </c>
       <c r="G15" s="30"/>
       <c r="H15" s="39" t="s">
@@ -2205,24 +2231,24 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>142</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="65" t="s">
         <v>162</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>166</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="39" t="s">
@@ -2234,24 +2260,24 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="49">
         <v>1</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>142</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="65" t="s">
         <v>162</v>
-      </c>
-      <c r="F17" s="65" t="s">
-        <v>166</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="39" t="s">
@@ -2263,85 +2289,84 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="48">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="49">
         <v>1</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="48">
+        <v>1</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E19" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="65" t="s">
         <v>162</v>
-      </c>
-      <c r="F18" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="51" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="49">
-        <v>1</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>166</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="J19" s="18"/>
-      <c r="K19" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="L19" s="27"/>
-    </row>
-    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="K19" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="49">
         <v>1</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>145</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="65" t="s">
         <v>162</v>
-      </c>
-      <c r="F20" s="65" t="s">
-        <v>166</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="7" t="s">
@@ -2350,238 +2375,236 @@
       <c r="I20" s="7"/>
       <c r="J20" s="18"/>
       <c r="K20" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="49">
+        <v>1</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="L20" s="27"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="48">
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="48">
         <v>1</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B22" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C22" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D22" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E22" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="G22" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="36" t="s">
+      <c r="J22" s="18"/>
+      <c r="K22" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="L21" s="27"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="75" t="s">
+      <c r="L22" s="27"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76" t="s">
+      <c r="C23" s="76"/>
+      <c r="D23" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="77" t="s">
+      <c r="E23" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="80" t="s">
+      <c r="G23" s="78"/>
+      <c r="H23" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="80" t="s">
+      <c r="I23" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="78"/>
-      <c r="K22" s="56" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="48"/>
-      <c r="B23" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="79" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="H23" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="80" t="s">
-        <v>14</v>
-      </c>
       <c r="J23" s="78"/>
-      <c r="K23" s="51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="49"/>
+      <c r="K23" s="56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="48"/>
       <c r="B24" s="75" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="76"/>
       <c r="D24" s="79" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E24" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="77" t="s">
+      <c r="G24" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="78"/>
+      <c r="K24" s="51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="49"/>
+      <c r="B25" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="76"/>
+      <c r="D25" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25" s="79"/>
+      <c r="K25" s="54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="H24" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="I24" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="54" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="46"/>
-      <c r="B25" s="75" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="76" t="s">
+      <c r="C26" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="E25" s="77" t="s">
+      <c r="D26" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="H25" s="79" t="s">
+      <c r="G26" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="79" t="s">
+      <c r="I26" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="78"/>
-      <c r="K25" s="56" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="48"/>
-      <c r="B26" s="75" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="E26" s="77" t="s">
+      <c r="J26" s="78"/>
+      <c r="K26" s="56" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+      <c r="B27" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="81"/>
+      <c r="D27" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="F26" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="78"/>
-      <c r="H26" s="80" t="s">
+      <c r="G27" s="78"/>
+      <c r="H27" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="80" t="s">
+      <c r="I27" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="J26" s="79"/>
-      <c r="K26" s="56" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="49"/>
-      <c r="B27" s="102" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="80" t="s">
-        <v>201</v>
-      </c>
-      <c r="E27" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="F27" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="G27" s="78" t="s">
-        <v>159</v>
-      </c>
-      <c r="H27" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="78"/>
-      <c r="K27" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="L27" s="27"/>
-    </row>
-    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="J27" s="79"/>
+      <c r="K27" s="56" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="102" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C28" s="80" t="s">
         <v>145</v>
       </c>
       <c r="D28" s="80" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E28" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="77" t="s">
-        <v>167</v>
-      </c>
       <c r="G28" s="78" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H28" s="79" t="s">
         <v>16</v>
@@ -2591,26 +2614,30 @@
       </c>
       <c r="J28" s="78"/>
       <c r="K28" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L28" s="27"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="80"/>
+        <v>170</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>145</v>
+      </c>
       <c r="D29" s="80" t="s">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="E29" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" s="78"/>
+      <c r="G29" s="78" t="s">
+        <v>155</v>
+      </c>
       <c r="H29" s="79" t="s">
         <v>16</v>
       </c>
@@ -2619,85 +2646,83 @@
       </c>
       <c r="J29" s="78"/>
       <c r="K29" s="52" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L29" s="27"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="102" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C30" s="80"/>
       <c r="D30" s="80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="77" t="s">
         <v>163</v>
-      </c>
-      <c r="F30" s="77" t="s">
-        <v>167</v>
       </c>
       <c r="G30" s="78"/>
       <c r="H30" s="79" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I30" s="79" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J30" s="78"/>
       <c r="K30" s="52" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="L30" s="27"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="49"/>
       <c r="B31" s="102" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C31" s="80"/>
       <c r="D31" s="80" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E31" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="F31" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="G31" s="78" t="s">
-        <v>181</v>
-      </c>
+      <c r="G31" s="78"/>
       <c r="H31" s="79" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I31" s="79" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="J31" s="78"/>
       <c r="K31" s="52" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="L31" s="27"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="49"/>
       <c r="B32" s="102" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="C32" s="80"/>
       <c r="D32" s="80" t="s">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="E32" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="77" t="s">
-        <v>167</v>
-      </c>
       <c r="G32" s="78" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H32" s="79" t="s">
         <v>16</v>
@@ -2706,119 +2731,118 @@
         <v>16</v>
       </c>
       <c r="J32" s="78"/>
-      <c r="K32" s="103" t="s">
-        <v>215</v>
+      <c r="K32" s="52" t="s">
+        <v>76</v>
       </c>
       <c r="L32" s="27"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="101" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="49"/>
+      <c r="B33" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="C33" s="80"/>
+      <c r="D33" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="78"/>
+      <c r="K33" s="103" t="s">
+        <v>211</v>
+      </c>
+      <c r="L33" s="27"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83" t="s">
+      <c r="C34" s="83"/>
+      <c r="D34" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="F33" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="G33" s="86"/>
-      <c r="H33" s="83" t="s">
+      <c r="E34" s="84" t="s">
+        <v>209</v>
+      </c>
+      <c r="F34" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="86"/>
+      <c r="H34" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="83" t="s">
+      <c r="I34" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="87"/>
-      <c r="K33" s="47" t="s">
+      <c r="J34" s="87"/>
+      <c r="K34" s="47" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="B34" s="28" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="F34" s="84" t="s">
-        <v>165</v>
-      </c>
-      <c r="G34" s="87"/>
-      <c r="H34" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="89"/>
-      <c r="K34" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="48">
-        <v>1</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>208</v>
       </c>
       <c r="C35" s="88"/>
       <c r="D35" s="26" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="E35" s="84" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="F35" s="84" t="s">
-        <v>165</v>
-      </c>
-      <c r="G35" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="H35" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G35" s="87"/>
+      <c r="H35" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="89"/>
+      <c r="K35" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="48">
         <v>1</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C36" s="88"/>
       <c r="D36" s="26" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="H36" s="89" t="s">
         <v>14</v>
@@ -2827,219 +2851,217 @@
         <v>14</v>
       </c>
       <c r="J36" s="26"/>
-      <c r="K36" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K36" s="43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="48">
         <v>1</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C37" s="88"/>
-      <c r="D37" s="41" t="s">
-        <v>184</v>
+      <c r="D37" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="E37" s="84" t="s">
-        <v>178</v>
-      </c>
-      <c r="F37" s="85" t="s">
-        <v>165</v>
+        <v>174</v>
+      </c>
+      <c r="F37" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H37" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="26"/>
+      <c r="K37" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="48">
+        <v>1</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" s="88"/>
+      <c r="D38" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H38" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="89" t="s">
+      <c r="I38" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="36" t="s">
+      <c r="J38" s="41"/>
+      <c r="K38" s="36" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="49">
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="49">
         <v>1</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B39" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="90"/>
-      <c r="D38" s="41" t="s">
+      <c r="C39" s="90"/>
+      <c r="D39" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="E38" s="84" t="s">
-        <v>178</v>
-      </c>
-      <c r="F38" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H38" s="89" t="s">
+      <c r="E39" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H39" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="I38" s="89" t="s">
+      <c r="I39" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="J38" s="91"/>
-      <c r="K38" s="53" t="s">
+      <c r="J39" s="91"/>
+      <c r="K39" s="53" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="48">
-        <v>1</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="E39" s="84" t="s">
-        <v>178</v>
-      </c>
-      <c r="F39" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H39" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="I39" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="J39" s="26"/>
-      <c r="K39" s="56" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="48">
         <v>1</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C40" s="88"/>
+        <v>3</v>
+      </c>
+      <c r="C40" s="92"/>
       <c r="D40" s="26" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E40" s="84" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F40" s="85" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H40" s="93" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="I40" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="87"/>
-      <c r="K40" s="51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="49">
+        <v>48</v>
+      </c>
+      <c r="J40" s="26"/>
+      <c r="K40" s="56" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="48">
         <v>1</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="26" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E41" s="84" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F41" s="85" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H41" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="87"/>
+      <c r="K41" s="51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="49">
+        <v>1</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="88"/>
+      <c r="D42" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="F42" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H42" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="I41" s="93" t="s">
+      <c r="I42" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="J41" s="26"/>
-      <c r="K41" s="54" t="s">
+      <c r="J42" s="26"/>
+      <c r="K42" s="54" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="48">
-        <v>1</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="88" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="84" t="s">
-        <v>178</v>
-      </c>
-      <c r="F42" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H42" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="94"/>
-      <c r="K42" s="45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="48">
         <v>1</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" s="88" t="s">
         <v>142</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43" s="84" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F43" s="85" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H43" s="26" t="s">
         <v>14</v>
@@ -3048,31 +3070,31 @@
         <v>14</v>
       </c>
       <c r="J43" s="94"/>
-      <c r="K43" s="36" t="s">
+      <c r="K43" s="45" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="48">
         <v>1</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44" s="88" t="s">
         <v>142</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E44" s="84" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F44" s="85" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H44" s="26" t="s">
         <v>14</v>
@@ -3085,27 +3107,27 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="48">
         <v>1</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45" s="88" t="s">
         <v>142</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E45" s="84" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F45" s="85" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G45" s="26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H45" s="26" t="s">
         <v>14</v>
@@ -3115,30 +3137,30 @@
       </c>
       <c r="J45" s="94"/>
       <c r="K45" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="48">
         <v>1</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="88" t="s">
         <v>142</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" s="84" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F46" s="85" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H46" s="26" t="s">
         <v>14</v>
@@ -3151,173 +3173,177 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="48">
         <v>1</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C47" s="88" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47" s="84" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F47" s="85" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="87"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="J47" s="94"/>
+      <c r="K47" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="48">
         <v>1</v>
       </c>
       <c r="B48" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="F48" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="87"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="48">
+        <v>1</v>
+      </c>
+      <c r="B49" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="88"/>
-      <c r="D48" s="26" t="s">
+      <c r="C49" s="88"/>
+      <c r="D49" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="84" t="s">
-        <v>178</v>
-      </c>
-      <c r="F48" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H48" s="26" t="s">
+      <c r="E49" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H49" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I48" s="26" t="s">
+      <c r="I49" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="87"/>
-      <c r="K48" s="25" t="s">
+      <c r="J49" s="87"/>
+      <c r="K49" s="25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="19.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="48"/>
-      <c r="B49" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="C49" s="88"/>
-      <c r="D49" s="119" t="s">
-        <v>218</v>
-      </c>
-      <c r="E49" s="84" t="s">
-        <v>178</v>
-      </c>
-      <c r="F49" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H49" s="26" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="48"/>
+      <c r="B50" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" s="88"/>
+      <c r="D50" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="E50" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H50" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I49" s="26" t="s">
+      <c r="I50" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J49" s="87"/>
-      <c r="K49" s="97" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="5">
+      <c r="J50" s="87"/>
+      <c r="K50" s="97" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>1</v>
       </c>
-      <c r="B50" s="70" t="s">
+      <c r="B51" s="70" t="s">
         <v>20</v>
-      </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="F50" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="G50" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="H50" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" s="87"/>
-      <c r="K50" s="45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="46">
-        <v>1</v>
-      </c>
-      <c r="B51" s="70" t="s">
-        <v>25</v>
       </c>
       <c r="C51" s="71"/>
       <c r="D51" s="74" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="E51" s="72" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F51" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="G51" s="73"/>
+        <v>186</v>
+      </c>
+      <c r="G51" s="73" t="s">
+        <v>177</v>
+      </c>
       <c r="H51" s="74" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I51" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51" s="73"/>
-      <c r="K51" s="43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="J51" s="87"/>
+      <c r="K51" s="45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="46">
         <v>1</v>
       </c>
       <c r="B52" s="70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52" s="71"/>
       <c r="D52" s="74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E52" s="72" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F52" s="72" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G52" s="73"/>
       <c r="H52" s="74" t="s">
@@ -3331,22 +3357,22 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="5">
-        <v>2</v>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="46">
+        <v>1</v>
       </c>
       <c r="B53" s="70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53" s="71"/>
       <c r="D53" s="74" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="E53" s="72" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F53" s="72" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G53" s="73"/>
       <c r="H53" s="74" t="s">
@@ -3356,301 +3382,301 @@
         <v>11</v>
       </c>
       <c r="J53" s="73"/>
-      <c r="K53" s="45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="46">
-        <v>1</v>
+      <c r="K53" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>2</v>
       </c>
       <c r="B54" s="70" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C54" s="71"/>
       <c r="D54" s="74" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="E54" s="72" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F54" s="72" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G54" s="73"/>
       <c r="H54" s="74" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I54" s="74" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="J54" s="73"/>
-      <c r="K54" s="43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="96">
+      <c r="K54" s="45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="46">
         <v>1</v>
       </c>
       <c r="B55" s="70" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C55" s="71"/>
       <c r="D55" s="74" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="E55" s="72" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F55" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="G55" s="73" t="s">
-        <v>159</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G55" s="73"/>
       <c r="H55" s="74" t="s">
-        <v>195</v>
+        <v>48</v>
       </c>
       <c r="I55" s="74" t="s">
-        <v>195</v>
+        <v>48</v>
       </c>
       <c r="J55" s="73"/>
-      <c r="K55" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K55" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="96">
         <v>1</v>
       </c>
       <c r="B56" s="70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" s="71"/>
       <c r="D56" s="74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E56" s="72" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F56" s="72" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G56" s="73" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H56" s="74" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I56" s="74" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J56" s="73"/>
       <c r="K56" s="36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" s="5">
-        <v>2</v>
+    <row r="57" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="96">
+        <v>1</v>
       </c>
       <c r="B57" s="70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" s="71"/>
       <c r="D57" s="74" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="E57" s="72" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F57" s="72" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G57" s="73" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H57" s="74" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I57" s="74" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J57" s="73"/>
       <c r="K57" s="36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="99">
-        <v>1</v>
-      </c>
-      <c r="B58" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="76"/>
-      <c r="D58" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="F58" s="77" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>2</v>
+      </c>
+      <c r="B58" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="71"/>
+      <c r="D58" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="G58" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="H58" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="G58" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="H58" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="78"/>
-      <c r="K58" s="79" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I58" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="J58" s="73"/>
+      <c r="K58" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="99">
         <v>1</v>
       </c>
       <c r="B59" s="75" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C59" s="76"/>
       <c r="D59" s="79" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="E59" s="77" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F59" s="77" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G59" s="78" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H59" s="79" t="s">
         <v>11</v>
       </c>
       <c r="I59" s="79" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J59" s="78"/>
       <c r="K59" s="79" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="99">
         <v>1</v>
       </c>
       <c r="B60" s="75" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C60" s="76"/>
       <c r="D60" s="79" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E60" s="77" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F60" s="77" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G60" s="78" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H60" s="79" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="I60" s="79" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="J60" s="78"/>
       <c r="K60" s="79" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="99">
         <v>1</v>
       </c>
       <c r="B61" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="76" t="s">
-        <v>142</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C61" s="76"/>
       <c r="D61" s="79" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E61" s="77" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F61" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="G61" s="78"/>
+        <v>187</v>
+      </c>
+      <c r="G61" s="78" t="s">
+        <v>177</v>
+      </c>
       <c r="H61" s="79" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="I61" s="79" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="J61" s="78"/>
       <c r="K61" s="79" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" s="5"/>
-      <c r="B62" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C62" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="F62" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J62" s="18"/>
-      <c r="K62" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="99">
+        <v>1</v>
+      </c>
+      <c r="B62" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="E62" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" s="78"/>
+      <c r="H62" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" s="78"/>
+      <c r="K62" s="79" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" s="59" t="s">
         <v>146</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E63" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F63" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F63" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="20" t="s">
@@ -3664,22 +3690,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="12" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C64" s="59" t="s">
         <v>146</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="E64" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F64" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F64" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="20" t="s">
@@ -3693,21 +3719,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B65" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C65" s="23" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>32</v>
+      <c r="D65" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E65" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F65" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F65" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="20" t="s">
@@ -3721,21 +3748,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C66" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E66" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F66" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F66" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="20" t="s">
@@ -3749,21 +3776,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B67" s="13" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E67" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F67" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F67" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="20" t="s">
@@ -3777,21 +3804,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B68" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E68" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F68" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F68" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="20" t="s">
@@ -3805,21 +3832,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C69" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E69" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F69" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F69" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="20" t="s">
@@ -3833,21 +3860,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B70" s="35" t="s">
-        <v>56</v>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="C70" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E70" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F70" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F70" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="20" t="s">
@@ -3861,21 +3888,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B71" s="13" t="s">
-        <v>57</v>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="C71" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E71" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F71" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F71" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="20" t="s">
@@ -3889,49 +3916,49 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B72" s="15" t="s">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F72" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="G72" s="9"/>
+      <c r="H72" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" s="18"/>
+      <c r="K72" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C72" s="60" t="s">
+      <c r="C73" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D73" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="64" t="s">
+      <c r="E73" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F73" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F72" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J72" s="38"/>
-      <c r="K72" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B73" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E73" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="F73" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="16" t="s">
@@ -3941,25 +3968,25 @@
         <v>13</v>
       </c>
       <c r="J73" s="38"/>
-      <c r="K73" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K73" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" s="15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C74" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E74" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F74" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F74" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="16" t="s">
@@ -3973,21 +4000,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B75" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C75" s="60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E75" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F75" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F75" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G75" s="11"/>
       <c r="H75" s="16" t="s">
@@ -4001,21 +4028,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B76" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C76" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E76" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F76" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F76" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G76" s="11"/>
       <c r="H76" s="16" t="s">
@@ -4025,75 +4052,77 @@
         <v>13</v>
       </c>
       <c r="J76" s="38"/>
-      <c r="K76" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K76" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B77" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" s="60"/>
+        <v>62</v>
+      </c>
+      <c r="C77" s="60" t="s">
+        <v>144</v>
+      </c>
       <c r="D77" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E77" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F77" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F77" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G77" s="11"/>
       <c r="H77" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J77" s="18"/>
-      <c r="K77" s="37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="J77" s="38"/>
+      <c r="K77" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B78" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C78" s="60"/>
       <c r="D78" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E78" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F78" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F78" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="J78" s="18"/>
       <c r="K78" s="37" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B79" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C79" s="60"/>
       <c r="D79" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E79" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F79" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F79" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="16" t="s">
@@ -4107,19 +4136,19 @@
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="60"/>
-      <c r="D80" s="17" t="s">
-        <v>47</v>
+      <c r="D80" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E80" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F80" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F80" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G80" s="11"/>
       <c r="H80" s="16" t="s">
@@ -4133,43 +4162,45 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B81" s="24" t="s">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="60"/>
+      <c r="D81" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="G81" s="11"/>
+      <c r="H81" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J81" s="18"/>
+      <c r="K81" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="24" t="s">
         <v>101</v>
-      </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E81" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="F81" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="G81" s="11"/>
-      <c r="H81" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="I81" s="16"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B82" s="24" t="s">
-        <v>73</v>
       </c>
       <c r="C82" s="23"/>
       <c r="D82" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E82" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F82" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="31" t="s">
@@ -4178,35 +4209,59 @@
       <c r="I82" s="16"/>
       <c r="J82" s="18"/>
       <c r="K82" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B83" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="C83" s="23"/>
-      <c r="D83" s="29" t="s">
-        <v>108</v>
+      <c r="D83" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="E83" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" s="64" t="s">
         <v>164</v>
-      </c>
-      <c r="F83" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="G83" s="11"/>
       <c r="H83" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I83" s="16"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84" s="23"/>
+      <c r="D84" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E84" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="G84" s="11"/>
+      <c r="H84" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="I83" s="34"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="29" t="s">
+      <c r="I84" s="34"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="29" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K83"/>
+  <autoFilter ref="A5:K84" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="8">
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B8:B9"/>

--- a/data_input/analytics/OLAP MultiBOM Flame GPU.xlsx
+++ b/data_input/analytics/OLAP MultiBOM Flame GPU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF31620-1ACE-4ECE-900E-627E81600F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C51076D-9AFA-4F62-8DD1-88160E312C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="222">
   <si>
     <t>Эксплуатация</t>
   </si>
@@ -702,9 +702,6 @@
   </si>
   <si>
     <t>flight_program_fl</t>
-  </si>
-  <si>
-    <t>ac_typ_mask</t>
   </si>
   <si>
     <t>aircraft_number</t>
@@ -1478,6 +1475,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1522,9 +1522,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1871,8 +1868,8 @@
   </sheetPr>
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,18 +1905,18 @@
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -1966,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="68" t="s">
@@ -1987,7 +1984,7 @@
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2001,48 +1998,48 @@
       <c r="D7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="112" t="s">
+      <c r="E7" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="112" t="s">
+      <c r="F7" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="H7" s="114" t="s">
+      <c r="H7" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="116" t="s">
+      <c r="I7" s="117" t="s">
         <v>150</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K7" s="98" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>2</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="106" t="s">
         <v>114</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="117"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="118"/>
       <c r="J8" s="62" t="s">
-        <v>220</v>
-      </c>
-      <c r="K8" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="K8" s="108" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2050,20 +2047,20 @@
       <c r="A9" s="49">
         <v>2</v>
       </c>
-      <c r="B9" s="106"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="117"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="118"/>
       <c r="J9" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="K9" s="108"/>
+        <v>220</v>
+      </c>
+      <c r="K9" s="109"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="49">
@@ -2076,13 +2073,13 @@
       <c r="D10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="113"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="117"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="118"/>
       <c r="J10" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K10" s="95" t="s">
         <v>137</v>
@@ -2091,11 +2088,11 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E11" s="65" t="s">
         <v>158</v>
@@ -2113,7 +2110,7 @@
         <v>48</v>
       </c>
       <c r="J11" s="62"/>
-      <c r="K11" s="119"/>
+      <c r="K11" s="104"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="49">
@@ -2467,7 +2464,7 @@
       </c>
       <c r="J23" s="78"/>
       <c r="K23" s="56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2477,7 +2474,7 @@
       </c>
       <c r="C24" s="76"/>
       <c r="D24" s="79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E24" s="77" t="s">
         <v>159</v>
@@ -2506,7 +2503,7 @@
       </c>
       <c r="C25" s="76"/>
       <c r="D25" s="79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E25" s="77" t="s">
         <v>159</v>
@@ -2556,7 +2553,7 @@
       </c>
       <c r="J26" s="78"/>
       <c r="K26" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2583,7 +2580,7 @@
       </c>
       <c r="J27" s="79"/>
       <c r="K27" s="56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2595,7 +2592,7 @@
         <v>145</v>
       </c>
       <c r="D28" s="80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E28" s="77" t="s">
         <v>159</v>
@@ -2627,7 +2624,7 @@
         <v>145</v>
       </c>
       <c r="D29" s="80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E29" s="77" t="s">
         <v>159</v>
@@ -2739,11 +2736,11 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="49"/>
       <c r="B33" s="102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" s="80"/>
       <c r="D33" s="80" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E33" s="77" t="s">
         <v>159</v>
@@ -2762,97 +2759,96 @@
       </c>
       <c r="J33" s="78"/>
       <c r="K33" s="103" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L33" s="27"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="49"/>
+      <c r="B34" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="78"/>
+      <c r="K34" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="L34" s="27"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="101" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="B34" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="84" t="s">
-        <v>209</v>
-      </c>
-      <c r="F34" s="85" t="s">
+      <c r="F35" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="86"/>
-      <c r="H34" s="83" t="s">
+      <c r="G35" s="86"/>
+      <c r="H35" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="83" t="s">
+      <c r="I35" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="87"/>
-      <c r="K34" s="47" t="s">
+      <c r="J35" s="87"/>
+      <c r="K35" s="47" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="B35" s="28" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="84" t="s">
-        <v>209</v>
-      </c>
-      <c r="F35" s="84" t="s">
-        <v>161</v>
-      </c>
-      <c r="G35" s="87"/>
-      <c r="H35" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="J35" s="89"/>
-      <c r="K35" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="48">
-        <v>1</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>204</v>
       </c>
       <c r="C36" s="88"/>
       <c r="D36" s="26" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F36" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="G36" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="H36" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="43" t="s">
-        <v>125</v>
+      <c r="G36" s="87"/>
+      <c r="H36" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="89"/>
+      <c r="K36" s="29" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2860,20 +2856,20 @@
         <v>1</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C37" s="88"/>
       <c r="D37" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E37" s="84" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="F37" s="84" t="s">
         <v>161</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="H37" s="89" t="s">
         <v>14</v>
@@ -2882,8 +2878,8 @@
         <v>14</v>
       </c>
       <c r="J37" s="26"/>
-      <c r="K37" s="7" t="s">
-        <v>122</v>
+      <c r="K37" s="43" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2891,42 +2887,42 @@
         <v>1</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C38" s="88"/>
-      <c r="D38" s="41" t="s">
-        <v>180</v>
+      <c r="D38" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="E38" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="F38" s="85" t="s">
+      <c r="F38" s="84" t="s">
         <v>161</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>177</v>
       </c>
       <c r="H38" s="89" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I38" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="J38" s="41"/>
-      <c r="K38" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="49">
+        <v>14</v>
+      </c>
+      <c r="J38" s="26"/>
+      <c r="K38" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="48">
         <v>1</v>
       </c>
-      <c r="B39" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="90"/>
+      <c r="B39" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C39" s="88"/>
       <c r="D39" s="41" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="E39" s="84" t="s">
         <v>174</v>
@@ -2938,26 +2934,26 @@
         <v>177</v>
       </c>
       <c r="H39" s="89" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I39" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="J39" s="91"/>
-      <c r="K39" s="53" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="48">
+        <v>11</v>
+      </c>
+      <c r="J39" s="41"/>
+      <c r="K39" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="49">
         <v>1</v>
       </c>
-      <c r="B40" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="26" t="s">
-        <v>185</v>
+      <c r="B40" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="90"/>
+      <c r="D40" s="41" t="s">
+        <v>121</v>
       </c>
       <c r="E40" s="84" t="s">
         <v>174</v>
@@ -2968,15 +2964,15 @@
       <c r="G40" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="H40" s="93" t="s">
+      <c r="H40" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="I40" s="93" t="s">
+      <c r="I40" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="J40" s="26"/>
-      <c r="K40" s="56" t="s">
-        <v>199</v>
+      <c r="J40" s="91"/>
+      <c r="K40" s="53" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2984,11 +2980,11 @@
         <v>1</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C41" s="88"/>
+        <v>3</v>
+      </c>
+      <c r="C41" s="92"/>
       <c r="D41" s="26" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E41" s="84" t="s">
         <v>174</v>
@@ -3000,26 +2996,26 @@
         <v>177</v>
       </c>
       <c r="H41" s="93" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="I41" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="87"/>
-      <c r="K41" s="51" t="s">
-        <v>129</v>
+        <v>48</v>
+      </c>
+      <c r="J41" s="26"/>
+      <c r="K41" s="56" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="49">
+      <c r="A42" s="48">
         <v>1</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>2</v>
+        <v>201</v>
       </c>
       <c r="C42" s="88"/>
       <c r="D42" s="26" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E42" s="84" t="s">
         <v>174</v>
@@ -3031,28 +3027,26 @@
         <v>177</v>
       </c>
       <c r="H42" s="93" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="I42" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="J42" s="26"/>
-      <c r="K42" s="54" t="s">
-        <v>139</v>
+        <v>14</v>
+      </c>
+      <c r="J42" s="87"/>
+      <c r="K42" s="51" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="48">
+      <c r="A43" s="49">
         <v>1</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="88" t="s">
-        <v>142</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C43" s="88"/>
       <c r="D43" s="26" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="E43" s="84" t="s">
         <v>174</v>
@@ -3063,15 +3057,15 @@
       <c r="G43" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="H43" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" s="94"/>
-      <c r="K43" s="45" t="s">
-        <v>117</v>
+      <c r="H43" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="I43" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="J43" s="26"/>
+      <c r="K43" s="54" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3079,13 +3073,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="88" t="s">
         <v>142</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E44" s="84" t="s">
         <v>174</v>
@@ -3103,7 +3097,7 @@
         <v>14</v>
       </c>
       <c r="J44" s="94"/>
-      <c r="K44" s="36" t="s">
+      <c r="K44" s="45" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3112,13 +3106,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" s="88" t="s">
         <v>142</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E45" s="84" t="s">
         <v>174</v>
@@ -3145,13 +3139,13 @@
         <v>1</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="88" t="s">
         <v>142</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E46" s="84" t="s">
         <v>174</v>
@@ -3170,7 +3164,7 @@
       </c>
       <c r="J46" s="94"/>
       <c r="K46" s="36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3178,13 +3172,13 @@
         <v>1</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="88" t="s">
         <v>142</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" s="84" t="s">
         <v>174</v>
@@ -3211,13 +3205,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C48" s="88" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48" s="84" t="s">
         <v>174</v>
@@ -3229,24 +3223,28 @@
         <v>177</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="87"/>
-      <c r="K48" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="J48" s="94"/>
+      <c r="K48" s="36" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48">
         <v>1</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="88"/>
+        <v>17</v>
+      </c>
+      <c r="C49" s="88" t="s">
+        <v>145</v>
+      </c>
       <c r="D49" s="26" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E49" s="84" t="s">
         <v>174</v>
@@ -3258,24 +3256,24 @@
         <v>177</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J49" s="87"/>
-      <c r="K49" s="25" t="s">
-        <v>76</v>
-      </c>
+      <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
+      <c r="A50" s="48">
+        <v>1</v>
+      </c>
       <c r="B50" s="28" t="s">
-        <v>213</v>
+        <v>69</v>
       </c>
       <c r="C50" s="88"/>
       <c r="D50" s="26" t="s">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="E50" s="84" t="s">
         <v>174</v>
@@ -3287,14 +3285,14 @@
         <v>177</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J50" s="87"/>
-      <c r="K50" s="97" t="s">
-        <v>215</v>
+      <c r="K50" s="25" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3424,7 +3422,7 @@
       </c>
       <c r="C55" s="71"/>
       <c r="D55" s="74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E55" s="72" t="s">
         <v>171</v>
@@ -3465,10 +3463,10 @@
         <v>155</v>
       </c>
       <c r="H56" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I56" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J56" s="73"/>
       <c r="K56" s="36" t="s">
@@ -3496,17 +3494,17 @@
         <v>155</v>
       </c>
       <c r="H57" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I57" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J57" s="73"/>
       <c r="K57" s="36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>2</v>
       </c>
@@ -3527,10 +3525,10 @@
         <v>155</v>
       </c>
       <c r="H58" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I58" s="74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J58" s="73"/>
       <c r="K58" s="36" t="s">
@@ -3558,7 +3556,7 @@
         <v>177</v>
       </c>
       <c r="H59" s="79" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I59" s="79" t="s">
         <v>16</v>
@@ -3577,7 +3575,7 @@
       </c>
       <c r="C60" s="76"/>
       <c r="D60" s="79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E60" s="77" t="s">
         <v>184</v>
@@ -3589,10 +3587,10 @@
         <v>177</v>
       </c>
       <c r="H60" s="79" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I60" s="79" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J60" s="78"/>
       <c r="K60" s="79" t="s">
@@ -3608,7 +3606,7 @@
       </c>
       <c r="C61" s="76"/>
       <c r="D61" s="79" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E61" s="77" t="s">
         <v>184</v>
@@ -3641,7 +3639,7 @@
         <v>142</v>
       </c>
       <c r="D62" s="79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E62" s="77" t="s">
         <v>184</v>
@@ -3658,7 +3656,7 @@
       </c>
       <c r="J62" s="78"/>
       <c r="K62" s="79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">

--- a/data_input/analytics/OLAP MultiBOM Flame GPU.xlsx
+++ b/data_input/analytics/OLAP MultiBOM Flame GPU.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C51076D-9AFA-4F62-8DD1-88160E312C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="587"/>
   </bookViews>
   <sheets>
     <sheet name="OLAP MultiBOM" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$K$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$K$87</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="222">
   <si>
     <t>Эксплуатация</t>
   </si>
@@ -822,9 +821,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -1229,10 +1228,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1261,7 +1260,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1283,7 +1282,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1361,10 +1360,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -1383,10 +1382,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1398,10 +1397,10 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1419,16 +1418,16 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1449,7 +1448,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1526,8 +1525,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1618,23 +1617,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1670,23 +1652,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1862,37 +1827,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.7109375" style="66" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="163.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.5703125" style="1"/>
+    <col min="2" max="2" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="61" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.7265625" style="66" customWidth="1"/>
+    <col min="7" max="7" width="30.81640625" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="163.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="57"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
       <c r="C2" s="57"/>
       <c r="D2" s="8"/>
@@ -1903,7 +1868,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="105" t="s">
         <v>181</v>
@@ -1918,14 +1883,14 @@
       <c r="J3" s="105"/>
       <c r="K3" s="105"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="2"/>
       <c r="C4" s="57"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="50"/>
       <c r="B5" s="14" t="s">
         <v>10</v>
@@ -1958,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="48">
         <v>1</v>
       </c>
@@ -1987,70 +1952,80 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
-        <v>2</v>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="48">
+        <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="49">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="113" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="113" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="110" t="s">
-        <v>177</v>
-      </c>
-      <c r="H7" s="115" t="s">
-        <v>150</v>
-      </c>
-      <c r="I7" s="117" t="s">
-        <v>150</v>
-      </c>
-      <c r="J7" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="K7" s="98" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
-        <v>2</v>
-      </c>
-      <c r="B8" s="106" t="s">
-        <v>114</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="118"/>
+        <v>112</v>
+      </c>
+      <c r="E8" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="110" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" s="117" t="s">
+        <v>150</v>
+      </c>
       <c r="J8" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="K8" s="108" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="K8" s="98" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="49">
-        <v>2</v>
-      </c>
-      <c r="B9" s="107"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="106" t="s">
+        <v>114</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" s="114"/>
       <c r="F9" s="114"/>
@@ -2058,70 +2033,64 @@
       <c r="H9" s="116"/>
       <c r="I9" s="118"/>
       <c r="J9" s="62" t="s">
-        <v>220</v>
-      </c>
-      <c r="K9" s="109"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="K9" s="108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="49">
-        <v>2</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B10" s="107"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="E10" s="114"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="112"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="111"/>
       <c r="H10" s="116"/>
       <c r="I10" s="118"/>
       <c r="J10" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="K10" s="95" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+        <v>220</v>
+      </c>
+      <c r="K10" s="109"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="49">
+        <v>1</v>
+      </c>
       <c r="B11" s="12" t="s">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E11" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H11" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="62"/>
-      <c r="K11" s="104"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="E11" s="114"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" s="95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="49">
         <v>1</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="E12" s="65" t="s">
         <v>158</v>
@@ -2138,19 +2107,19 @@
       <c r="I12" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="55" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="104"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="49">
+        <v>1</v>
+      </c>
       <c r="B13" s="12" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E13" s="65" t="s">
         <v>158</v>
@@ -2158,30 +2127,30 @@
       <c r="F13" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="H13" s="82" t="s">
         <v>48</v>
       </c>
       <c r="I13" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="42" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="30"/>
+      <c r="K13" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="49">
         <v>1</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>142</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C14" s="6"/>
       <c r="D14" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E14" s="65" t="s">
         <v>158</v>
@@ -2190,27 +2159,29 @@
         <v>162</v>
       </c>
       <c r="G14" s="30"/>
-      <c r="H14" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="49">
         <v>1</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>142</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>158</v>
@@ -2228,18 +2199,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>142</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="65" t="s">
         <v>158</v>
@@ -2257,18 +2228,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="49">
         <v>1</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>142</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="65" t="s">
         <v>158</v>
@@ -2286,18 +2257,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="49">
         <v>1</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>142</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="65" t="s">
         <v>158</v>
@@ -2315,18 +2286,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="48">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="49">
         <v>1</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="E19" s="65" t="s">
         <v>158</v>
@@ -2335,29 +2306,27 @@
         <v>162</v>
       </c>
       <c r="G19" s="30"/>
-      <c r="H19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="51" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
-        <v>1</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="39" t="s">
+      <c r="H19" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="48">
+        <v>1</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="39" t="s">
-        <v>68</v>
+      <c r="D20" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>158</v>
@@ -2367,27 +2336,28 @@
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="J20" s="18"/>
-      <c r="K20" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="L20" s="27"/>
-    </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K20" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="49">
         <v>1</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="39" t="s">
         <v>145</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>158</v>
@@ -2402,22 +2372,22 @@
       <c r="I21" s="7"/>
       <c r="J21" s="18"/>
       <c r="K21" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L21" s="27"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="48">
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="49">
         <v>1</v>
       </c>
       <c r="B22" s="69" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E22" s="65" t="s">
         <v>158</v>
@@ -2425,116 +2395,127 @@
       <c r="F22" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="30"/>
+      <c r="H22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="L22" s="27"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="48">
+        <v>1</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="36" t="s">
+      <c r="J23" s="18"/>
+      <c r="K23" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="L22" s="27"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="75" t="s">
+      <c r="L23" s="27"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="48">
+        <v>1</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="48">
+        <v>1</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="27"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76" t="s">
+      <c r="C26" s="76"/>
+      <c r="D26" s="76" t="s">
         <v>23</v>
-      </c>
-      <c r="E23" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="78"/>
-      <c r="H23" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="78"/>
-      <c r="K23" s="56" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="E24" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="F24" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="H24" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="78"/>
-      <c r="K24" s="51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="H25" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="I25" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="54" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="76" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>154</v>
       </c>
       <c r="E26" s="77" t="s">
         <v>159</v>
@@ -2542,28 +2523,26 @@
       <c r="F26" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="G26" s="79" t="s">
-        <v>177</v>
-      </c>
-      <c r="H26" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="79" t="s">
-        <v>14</v>
+      <c r="G26" s="78"/>
+      <c r="H26" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="80" t="s">
+        <v>16</v>
       </c>
       <c r="J26" s="78"/>
       <c r="K26" s="56" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="48"/>
       <c r="B27" s="75" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="81"/>
+        <v>165</v>
+      </c>
+      <c r="C27" s="76"/>
       <c r="D27" s="79" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E27" s="77" t="s">
         <v>159</v>
@@ -2571,28 +2550,28 @@
       <c r="F27" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="G27" s="78"/>
+      <c r="G27" s="79" t="s">
+        <v>156</v>
+      </c>
       <c r="H27" s="80" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="I27" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27" s="79"/>
-      <c r="K27" s="56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J27" s="78"/>
+      <c r="K27" s="51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="49"/>
-      <c r="B28" s="102" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="80" t="s">
-        <v>196</v>
+      <c r="B28" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="76"/>
+      <c r="D28" s="79" t="s">
+        <v>194</v>
       </c>
       <c r="E28" s="77" t="s">
         <v>159</v>
@@ -2600,31 +2579,30 @@
       <c r="F28" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="H28" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="78"/>
-      <c r="K28" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="L28" s="27"/>
-    </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="80" t="s">
-        <v>197</v>
+      <c r="G28" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" s="79"/>
+      <c r="K28" s="54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="46"/>
+      <c r="B29" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="79" t="s">
+        <v>154</v>
       </c>
       <c r="E29" s="77" t="s">
         <v>159</v>
@@ -2632,29 +2610,28 @@
       <c r="F29" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="G29" s="78" t="s">
-        <v>155</v>
+      <c r="G29" s="79" t="s">
+        <v>177</v>
       </c>
       <c r="H29" s="79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I29" s="79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J29" s="78"/>
-      <c r="K29" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="L29" s="27"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80" t="s">
-        <v>30</v>
+      <c r="K29" s="56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="48"/>
+      <c r="B30" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="81"/>
+      <c r="D30" s="79" t="s">
+        <v>185</v>
       </c>
       <c r="E30" s="77" t="s">
         <v>159</v>
@@ -2663,26 +2640,27 @@
         <v>163</v>
       </c>
       <c r="G30" s="78"/>
-      <c r="H30" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="78"/>
-      <c r="K30" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="L30" s="27"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H30" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="79"/>
+      <c r="K30" s="56" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="49"/>
       <c r="B31" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="80"/>
+        <v>169</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>145</v>
+      </c>
       <c r="D31" s="80" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="E31" s="77" t="s">
         <v>159</v>
@@ -2690,27 +2668,31 @@
       <c r="F31" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="G31" s="78"/>
+      <c r="G31" s="78" t="s">
+        <v>155</v>
+      </c>
       <c r="H31" s="79" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I31" s="79" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J31" s="78"/>
       <c r="K31" s="52" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="L31" s="27"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="49"/>
       <c r="B32" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="80"/>
+        <v>170</v>
+      </c>
+      <c r="C32" s="80" t="s">
+        <v>145</v>
+      </c>
       <c r="D32" s="80" t="s">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c r="E32" s="77" t="s">
         <v>159</v>
@@ -2719,7 +2701,7 @@
         <v>163</v>
       </c>
       <c r="G32" s="78" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="H32" s="79" t="s">
         <v>16</v>
@@ -2729,18 +2711,18 @@
       </c>
       <c r="J32" s="78"/>
       <c r="K32" s="52" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="L32" s="27"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="49"/>
       <c r="B33" s="102" t="s">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="C33" s="80"/>
       <c r="D33" s="80" t="s">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="E33" s="77" t="s">
         <v>159</v>
@@ -2748,9 +2730,7 @@
       <c r="F33" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="G33" s="78" t="s">
-        <v>177</v>
-      </c>
+      <c r="G33" s="78"/>
       <c r="H33" s="79" t="s">
         <v>16</v>
       </c>
@@ -2758,29 +2738,27 @@
         <v>16</v>
       </c>
       <c r="J33" s="78"/>
-      <c r="K33" s="103" t="s">
-        <v>210</v>
+      <c r="K33" s="52" t="s">
+        <v>127</v>
       </c>
       <c r="L33" s="27"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="49"/>
       <c r="B34" s="102" t="s">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="C34" s="80"/>
       <c r="D34" s="80" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="E34" s="77" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F34" s="77" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" s="78" t="s">
-        <v>177</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G34" s="78"/>
       <c r="H34" s="79" t="s">
         <v>48</v>
       </c>
@@ -2788,234 +2766,231 @@
         <v>48</v>
       </c>
       <c r="J34" s="78"/>
-      <c r="K34" s="103" t="s">
+      <c r="K34" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="L34" s="27"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="49"/>
+      <c r="B35" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="H35" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="78"/>
+      <c r="K35" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="L35" s="27"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="B36" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="H36" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="78"/>
+      <c r="K36" s="103" t="s">
+        <v>210</v>
+      </c>
+      <c r="L36" s="27"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="B37" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="78"/>
+      <c r="K37" s="103" t="s">
         <v>214</v>
       </c>
-      <c r="L34" s="27"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="101" t="s">
+      <c r="L37" s="27"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B38" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83" t="s">
+      <c r="C38" s="83"/>
+      <c r="D38" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E38" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="F35" s="85" t="s">
+      <c r="F38" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="86"/>
-      <c r="H35" s="83" t="s">
+      <c r="G38" s="86"/>
+      <c r="H38" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="83" t="s">
+      <c r="I38" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="87"/>
-      <c r="K35" s="47" t="s">
+      <c r="J38" s="87"/>
+      <c r="K38" s="47" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B39" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="26" t="s">
+      <c r="C39" s="88"/>
+      <c r="D39" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="84" t="s">
+      <c r="E39" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="F36" s="84" t="s">
+      <c r="F39" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="G36" s="87"/>
-      <c r="H36" s="26" t="s">
+      <c r="G39" s="87"/>
+      <c r="H39" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I36" s="26" t="s">
+      <c r="I39" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J36" s="89"/>
-      <c r="K36" s="29" t="s">
+      <c r="J39" s="89"/>
+      <c r="K39" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="48">
-        <v>1</v>
-      </c>
-      <c r="B37" s="28" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="48">
+        <v>1</v>
+      </c>
+      <c r="B40" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="C37" s="88"/>
-      <c r="D37" s="26" t="s">
+      <c r="C40" s="88"/>
+      <c r="D40" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E37" s="84" t="s">
+      <c r="E40" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="F37" s="84" t="s">
+      <c r="F40" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G40" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="H37" s="89" t="s">
+      <c r="H40" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="89" t="s">
+      <c r="I40" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="J37" s="26"/>
-      <c r="K37" s="43" t="s">
+      <c r="J40" s="26"/>
+      <c r="K40" s="43" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="48">
-        <v>1</v>
-      </c>
-      <c r="B38" s="28" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="48">
+        <v>1</v>
+      </c>
+      <c r="B41" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="26" t="s">
+      <c r="C41" s="88"/>
+      <c r="D41" s="26" t="s">
         <v>179</v>
-      </c>
-      <c r="E38" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="F38" s="84" t="s">
-        <v>161</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H38" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="26"/>
-      <c r="K38" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="48">
-        <v>1</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C39" s="88"/>
-      <c r="D39" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="E39" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="F39" s="85" t="s">
-        <v>161</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H39" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="J39" s="41"/>
-      <c r="K39" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="49">
-        <v>1</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="90"/>
-      <c r="D40" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="F40" s="85" t="s">
-        <v>161</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H40" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="I40" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="J40" s="91"/>
-      <c r="K40" s="53" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="48">
-        <v>1</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="26" t="s">
-        <v>185</v>
       </c>
       <c r="E41" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="F41" s="85" t="s">
+      <c r="F41" s="84" t="s">
         <v>161</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="H41" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="I41" s="93" t="s">
-        <v>48</v>
+      <c r="H41" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="89" t="s">
+        <v>14</v>
       </c>
       <c r="J41" s="26"/>
-      <c r="K41" s="56" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K41" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="48">
         <v>1</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C42" s="88"/>
-      <c r="D42" s="26" t="s">
-        <v>188</v>
+      <c r="D42" s="41" t="s">
+        <v>180</v>
       </c>
       <c r="E42" s="84" t="s">
         <v>174</v>
@@ -3026,27 +3001,27 @@
       <c r="G42" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="H42" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="87"/>
-      <c r="K42" s="51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H42" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="41"/>
+      <c r="K42" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="49">
         <v>1</v>
       </c>
-      <c r="B43" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="88"/>
-      <c r="D43" s="26" t="s">
-        <v>194</v>
+      <c r="B43" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="90"/>
+      <c r="D43" s="41" t="s">
+        <v>121</v>
       </c>
       <c r="E43" s="84" t="s">
         <v>174</v>
@@ -3057,29 +3032,27 @@
       <c r="G43" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="H43" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="I43" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="J43" s="26"/>
-      <c r="K43" s="54" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H43" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="91"/>
+      <c r="K43" s="53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="48">
         <v>1</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="88" t="s">
-        <v>142</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C44" s="92"/>
       <c r="D44" s="26" t="s">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="E44" s="84" t="s">
         <v>174</v>
@@ -3090,29 +3063,27 @@
       <c r="G44" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="H44" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" s="94"/>
-      <c r="K44" s="45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H44" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="26"/>
+      <c r="K44" s="56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="48">
         <v>1</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="88" t="s">
-        <v>142</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C45" s="88"/>
       <c r="D45" s="26" t="s">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="E45" s="84" t="s">
         <v>174</v>
@@ -3123,29 +3094,27 @@
       <c r="G45" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="H45" s="26" t="s">
+      <c r="H45" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="I45" s="26" t="s">
+      <c r="I45" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="J45" s="94"/>
-      <c r="K45" s="36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="48">
+      <c r="J45" s="87"/>
+      <c r="K45" s="51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="49">
         <v>1</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="88" t="s">
-        <v>142</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C46" s="88"/>
       <c r="D46" s="26" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="E46" s="84" t="s">
         <v>174</v>
@@ -3156,29 +3125,29 @@
       <c r="G46" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="H46" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" s="94"/>
-      <c r="K46" s="36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H46" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="I46" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="J46" s="26"/>
+      <c r="K46" s="54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="48">
         <v>1</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C47" s="88" t="s">
         <v>142</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" s="84" t="s">
         <v>174</v>
@@ -3196,22 +3165,22 @@
         <v>14</v>
       </c>
       <c r="J47" s="94"/>
-      <c r="K47" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K47" s="45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="48">
         <v>1</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C48" s="88" t="s">
         <v>142</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E48" s="84" t="s">
         <v>174</v>
@@ -3230,21 +3199,21 @@
       </c>
       <c r="J48" s="94"/>
       <c r="K48" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="48">
         <v>1</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="C49" s="88" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E49" s="84" t="s">
         <v>174</v>
@@ -3256,24 +3225,28 @@
         <v>177</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="87"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J49" s="94"/>
+      <c r="K49" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="48">
         <v>1</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="88"/>
+        <v>90</v>
+      </c>
+      <c r="C50" s="88" t="s">
+        <v>142</v>
+      </c>
       <c r="D50" s="26" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="E50" s="84" t="s">
         <v>174</v>
@@ -3285,115 +3258,121 @@
         <v>177</v>
       </c>
       <c r="H50" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="94"/>
+      <c r="K50" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="48">
+        <v>1</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="F51" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="94"/>
+      <c r="K51" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="48">
+        <v>1</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="F52" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H52" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="87"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="48">
+        <v>1</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="88"/>
+      <c r="D53" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="F53" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H53" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="26" t="s">
+      <c r="I53" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="87"/>
-      <c r="K50" s="25" t="s">
+      <c r="J53" s="87"/>
+      <c r="K53" s="25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>1</v>
-      </c>
-      <c r="B51" s="70" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>1</v>
+      </c>
+      <c r="B54" s="70" t="s">
         <v>20</v>
-      </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="F51" s="72" t="s">
-        <v>186</v>
-      </c>
-      <c r="G51" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="H51" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" s="87"/>
-      <c r="K51" s="45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="46">
-        <v>1</v>
-      </c>
-      <c r="B52" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="F52" s="72" t="s">
-        <v>186</v>
-      </c>
-      <c r="G52" s="73"/>
-      <c r="H52" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="J52" s="73"/>
-      <c r="K52" s="43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="46">
-        <v>1</v>
-      </c>
-      <c r="B53" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="71"/>
-      <c r="D53" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="F53" s="72" t="s">
-        <v>186</v>
-      </c>
-      <c r="G53" s="73"/>
-      <c r="H53" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="J53" s="73"/>
-      <c r="K53" s="43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>2</v>
-      </c>
-      <c r="B54" s="70" t="s">
-        <v>27</v>
       </c>
       <c r="C54" s="71"/>
       <c r="D54" s="74" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E54" s="72" t="s">
         <v>171</v>
@@ -3401,19 +3380,21 @@
       <c r="F54" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="G54" s="73"/>
+      <c r="G54" s="73" t="s">
+        <v>177</v>
+      </c>
       <c r="H54" s="74" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I54" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="J54" s="73"/>
+        <v>16</v>
+      </c>
+      <c r="J54" s="87"/>
       <c r="K54" s="45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="46">
         <v>1</v>
       </c>
@@ -3422,7 +3403,7 @@
       </c>
       <c r="C55" s="71"/>
       <c r="D55" s="74" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="E55" s="72" t="s">
         <v>171</v>
@@ -3432,26 +3413,26 @@
       </c>
       <c r="G55" s="73"/>
       <c r="H55" s="74" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I55" s="74" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="J55" s="73"/>
       <c r="K55" s="43" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="96">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="46">
         <v>1</v>
       </c>
       <c r="B56" s="70" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="C56" s="71"/>
       <c r="D56" s="74" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="E56" s="72" t="s">
         <v>171</v>
@@ -3459,30 +3440,28 @@
       <c r="F56" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="G56" s="73" t="s">
-        <v>155</v>
-      </c>
+      <c r="G56" s="73"/>
       <c r="H56" s="74" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="I56" s="74" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="J56" s="73"/>
-      <c r="K56" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="96">
-        <v>1</v>
+      <c r="K56" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>2</v>
       </c>
       <c r="B57" s="70" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="C57" s="71"/>
       <c r="D57" s="74" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E57" s="72" t="s">
         <v>171</v>
@@ -3490,30 +3469,28 @@
       <c r="F57" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="G57" s="73" t="s">
-        <v>155</v>
-      </c>
+      <c r="G57" s="73"/>
       <c r="H57" s="74" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="I57" s="74" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="J57" s="73"/>
-      <c r="K57" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>2</v>
+      <c r="K57" s="45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" s="46">
+        <v>1</v>
       </c>
       <c r="B58" s="70" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="C58" s="71"/>
       <c r="D58" s="74" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="E58" s="72" t="s">
         <v>171</v>
@@ -3521,125 +3498,121 @@
       <c r="F58" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="G58" s="73" t="s">
+      <c r="G58" s="73"/>
+      <c r="H58" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58" s="73"/>
+      <c r="K58" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" s="96">
+        <v>1</v>
+      </c>
+      <c r="B59" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="71"/>
+      <c r="D59" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="G59" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="H58" s="74" t="s">
+      <c r="H59" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="I58" s="74" t="s">
+      <c r="I59" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="J58" s="73"/>
-      <c r="K58" s="36" t="s">
+      <c r="J59" s="73"/>
+      <c r="K59" s="36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="99">
-        <v>1</v>
-      </c>
-      <c r="B59" s="75" t="s">
+    <row r="60" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="96">
+        <v>1</v>
+      </c>
+      <c r="B60" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="71"/>
+      <c r="D60" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="F60" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="G60" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="H60" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="I60" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="J60" s="73"/>
+      <c r="K60" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>2</v>
+      </c>
+      <c r="B61" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="71"/>
+      <c r="D61" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="F61" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="G61" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="H61" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="I61" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="J61" s="73"/>
+      <c r="K61" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="99">
+        <v>1</v>
+      </c>
+      <c r="B62" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="76"/>
-      <c r="D59" s="79" t="s">
+      <c r="C62" s="76"/>
+      <c r="D62" s="79" t="s">
         <v>23</v>
-      </c>
-      <c r="E59" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="F59" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="G59" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="H59" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" s="78"/>
-      <c r="K59" s="79" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="99">
-        <v>1</v>
-      </c>
-      <c r="B60" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="76"/>
-      <c r="D60" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="E60" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="F60" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="G60" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="H60" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" s="78"/>
-      <c r="K60" s="79" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="99">
-        <v>1</v>
-      </c>
-      <c r="B61" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="76"/>
-      <c r="D61" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="E61" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="F61" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="G61" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="H61" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="I61" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="J61" s="78"/>
-      <c r="K61" s="79" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="99">
-        <v>1</v>
-      </c>
-      <c r="B62" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" s="76" t="s">
-        <v>142</v>
-      </c>
-      <c r="D62" s="79" t="s">
-        <v>191</v>
       </c>
       <c r="E62" s="77" t="s">
         <v>184</v>
@@ -3647,114 +3620,123 @@
       <c r="F62" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="G62" s="78"/>
+      <c r="G62" s="78" t="s">
+        <v>177</v>
+      </c>
       <c r="H62" s="79" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I62" s="79" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J62" s="78"/>
       <c r="K62" s="79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="99">
+        <v>1</v>
+      </c>
+      <c r="B63" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="76"/>
+      <c r="D63" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="E63" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="F63" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="G63" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="H63" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" s="78"/>
+      <c r="K63" s="79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="99">
+        <v>1</v>
+      </c>
+      <c r="B64" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="76"/>
+      <c r="D64" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="F64" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="G64" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="H64" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="I64" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="J64" s="78"/>
+      <c r="K64" s="79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="100" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="99">
+        <v>1</v>
+      </c>
+      <c r="B65" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="F65" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="G65" s="78"/>
+      <c r="H65" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="78"/>
+      <c r="K65" s="79" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="12" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" s="5"/>
+      <c r="B66" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C66" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D66" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="E63" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="F63" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J63" s="18"/>
-      <c r="K63" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E64" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="F64" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J64" s="18"/>
-      <c r="K64" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="F65" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J65" s="18"/>
-      <c r="K65" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="E66" s="64" t="s">
         <v>160</v>
@@ -3774,15 +3756,16 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="23" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" s="5"/>
+      <c r="B67" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>33</v>
+      <c r="D67" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="E67" s="64" t="s">
         <v>160</v>
@@ -3802,15 +3785,16 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" s="23" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" s="5"/>
+      <c r="B68" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>34</v>
+      <c r="D68" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E68" s="64" t="s">
         <v>160</v>
@@ -3830,15 +3814,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B69" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C69" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E69" s="64" t="s">
         <v>160</v>
@@ -3858,15 +3842,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B70" s="13" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C70" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E70" s="64" t="s">
         <v>160</v>
@@ -3886,15 +3870,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="35" t="s">
-        <v>56</v>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B71" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="C71" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E71" s="64" t="s">
         <v>160</v>
@@ -3914,15 +3898,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B72" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C72" s="23" t="s">
         <v>146</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E72" s="64" t="s">
         <v>160</v>
@@ -3942,15 +3926,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C73" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>39</v>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B73" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="E73" s="64" t="s">
         <v>160</v>
@@ -3958,27 +3942,27 @@
       <c r="F73" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J73" s="38"/>
-      <c r="K73" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>40</v>
+      <c r="G73" s="9"/>
+      <c r="H73" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" s="18"/>
+      <c r="K73" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B74" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E74" s="64" t="s">
         <v>160</v>
@@ -3986,27 +3970,27 @@
       <c r="F74" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J74" s="38"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" s="18"/>
       <c r="K74" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>41</v>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E75" s="64" t="s">
         <v>160</v>
@@ -4014,27 +3998,27 @@
       <c r="F75" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="G75" s="11"/>
-      <c r="H75" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J75" s="38"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" s="18"/>
       <c r="K75" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C76" s="60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E76" s="64" t="s">
         <v>160</v>
@@ -4050,19 +4034,19 @@
         <v>13</v>
       </c>
       <c r="J76" s="38"/>
-      <c r="K76" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C77" s="60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E77" s="64" t="s">
         <v>160</v>
@@ -4078,17 +4062,19 @@
         <v>13</v>
       </c>
       <c r="J77" s="38"/>
-      <c r="K77" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78" s="60"/>
+        <v>58</v>
+      </c>
+      <c r="C78" s="60" t="s">
+        <v>144</v>
+      </c>
       <c r="D78" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E78" s="64" t="s">
         <v>160</v>
@@ -4098,23 +4084,25 @@
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J78" s="18"/>
-      <c r="K78" s="37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="J78" s="38"/>
+      <c r="K78" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C79" s="60"/>
+        <v>59</v>
+      </c>
+      <c r="C79" s="60" t="s">
+        <v>143</v>
+      </c>
       <c r="D79" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E79" s="64" t="s">
         <v>160</v>
@@ -4124,23 +4112,25 @@
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J79" s="18"/>
-      <c r="K79" s="37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="J79" s="38"/>
+      <c r="K79" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C80" s="60"/>
+        <v>62</v>
+      </c>
+      <c r="C80" s="60" t="s">
+        <v>144</v>
+      </c>
       <c r="D80" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E80" s="64" t="s">
         <v>160</v>
@@ -4150,23 +4140,23 @@
       </c>
       <c r="G80" s="11"/>
       <c r="H80" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J80" s="18"/>
-      <c r="K80" s="37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="J80" s="38"/>
+      <c r="K80" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="60"/>
-      <c r="D81" s="17" t="s">
-        <v>47</v>
+      <c r="D81" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="E81" s="64" t="s">
         <v>160</v>
@@ -4176,23 +4166,23 @@
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="I81" s="16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="J81" s="18"/>
       <c r="K81" s="37" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C82" s="23"/>
-      <c r="D82" s="20" t="s">
-        <v>75</v>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B82" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82" s="60"/>
+      <c r="D82" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E82" s="64" t="s">
         <v>160</v>
@@ -4201,22 +4191,24 @@
         <v>164</v>
       </c>
       <c r="G82" s="11"/>
-      <c r="H82" s="31" t="s">
+      <c r="H82" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I82" s="16"/>
+      <c r="I82" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="J82" s="18"/>
-      <c r="K82" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C83" s="23"/>
-      <c r="D83" s="20" t="s">
-        <v>74</v>
+      <c r="K82" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B83" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="60"/>
+      <c r="D83" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E83" s="64" t="s">
         <v>160</v>
@@ -4225,22 +4217,24 @@
         <v>164</v>
       </c>
       <c r="G83" s="11"/>
-      <c r="H83" s="31" t="s">
+      <c r="H83" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I83" s="16"/>
+      <c r="I83" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="J83" s="18"/>
-      <c r="K83" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="29" t="s">
-        <v>108</v>
+      <c r="K83" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B84" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="60"/>
+      <c r="D84" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="E84" s="64" t="s">
         <v>160</v>
@@ -4249,26 +4243,100 @@
         <v>164</v>
       </c>
       <c r="G84" s="11"/>
-      <c r="H84" s="31" t="s">
+      <c r="H84" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I84" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J84" s="18"/>
+      <c r="K84" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B85" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" s="23"/>
+      <c r="D85" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E85" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F85" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="G85" s="11"/>
+      <c r="H85" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I85" s="16"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B86" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" s="23"/>
+      <c r="D86" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E86" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F86" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="G86" s="11"/>
+      <c r="H86" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I86" s="16"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B87" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="23"/>
+      <c r="D87" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E87" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F87" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="G87" s="11"/>
+      <c r="H87" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="I84" s="34"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="29" t="s">
+      <c r="I87" s="34"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="29" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:K84" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:K87"/>
   <mergeCells count="8">
     <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="F8:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
